--- a/271025_Results_Med/MNL/mnl_med_OR.xlsx
+++ b/271025_Results_Med/MNL/mnl_med_OR.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G133"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -407,19 +407,19 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.243</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2.361</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-1.22</v>
+        <v>-5.98</v>
       </c>
       <c r="G2">
-        <v>0.2225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -434,19 +434,19 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.202</v>
+        <v>0.162</v>
       </c>
       <c r="D3">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="E3">
-        <v>1.352</v>
+        <v>2.602</v>
       </c>
       <c r="F3">
-        <v>-1.649</v>
+        <v>-1.284</v>
       </c>
       <c r="G3">
-        <v>0.0992</v>
+        <v>0.199</v>
       </c>
     </row>
     <row r="4">
@@ -457,23 +457,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>`edad_r2_35 - 54 años`</t>
+          <t>`edad_r2_55 - 80 años`</t>
         </is>
       </c>
       <c r="C4">
-        <v>1.244</v>
+        <v>0.788</v>
       </c>
       <c r="D4">
-        <v>0.211</v>
+        <v>0.046</v>
       </c>
       <c r="E4">
-        <v>7.339</v>
+        <v>13.365</v>
       </c>
       <c r="F4">
-        <v>0.241</v>
+        <v>-0.165</v>
       </c>
       <c r="G4">
-        <v>0.8097</v>
+        <v>0.869</v>
       </c>
     </row>
     <row r="5">
@@ -484,23 +484,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>`edad_r2_55 - 80 años`</t>
+          <t>`p22_Entre 11 y 15 km`</t>
         </is>
       </c>
       <c r="C5">
-        <v>0.966</v>
+        <v>0.095</v>
       </c>
       <c r="D5">
-        <v>0.139</v>
+        <v>0.095</v>
       </c>
       <c r="E5">
-        <v>6.708</v>
+        <v>0.095</v>
       </c>
       <c r="F5">
-        <v>-0.035</v>
+        <v>-1297.567</v>
       </c>
       <c r="G5">
-        <v>0.9721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -511,20 +511,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>`p22_Entre 11 y 15 km`</t>
+          <t>`p22_Entre 16 y 20 km`</t>
         </is>
       </c>
       <c r="C6">
-        <v>0.001</v>
+        <v>78082.60799999999</v>
       </c>
       <c r="D6">
-        <v>0.001</v>
+        <v>5356.498</v>
       </c>
       <c r="E6">
-        <v>0.001</v>
+        <v>1138223.922</v>
       </c>
       <c r="F6">
-        <v>-3052.103</v>
+        <v>8.241</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -538,20 +538,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>`p22_Entre 16 y 20 km`</t>
+          <t>`p22_Entre 6 y 10 km`</t>
         </is>
       </c>
       <c r="C7">
-        <v>163.504</v>
+        <v>2719.667</v>
       </c>
       <c r="D7">
-        <v>14.881</v>
+        <v>314.756</v>
       </c>
       <c r="E7">
-        <v>1796.489</v>
+        <v>23499.461</v>
       </c>
       <c r="F7">
-        <v>4.168</v>
+        <v>7.188</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -565,23 +565,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>`p22_Entre 6 y 10 km`</t>
+          <t>`p22_Menos de 5 km`</t>
         </is>
       </c>
       <c r="C8">
-        <v>5.629</v>
+        <v>67640.689</v>
       </c>
       <c r="D8">
-        <v>0.924</v>
+        <v>7068.287</v>
       </c>
       <c r="E8">
-        <v>34.278</v>
+        <v>647294.453</v>
       </c>
       <c r="F8">
-        <v>1.875</v>
+        <v>9.651999999999999</v>
       </c>
       <c r="G8">
-        <v>0.0608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -592,20 +592,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>`p22_Menos de 5 km`</t>
+          <t>`p5_agregado_Primaria o menos`</t>
         </is>
       </c>
       <c r="C9">
-        <v>139.807</v>
+        <v>25788.531</v>
       </c>
       <c r="D9">
-        <v>21.776</v>
+        <v>1197.004</v>
       </c>
       <c r="E9">
-        <v>897.577</v>
+        <v>555594.241</v>
       </c>
       <c r="F9">
-        <v>5.207</v>
+        <v>6.485</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -619,20 +619,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>`p22_Más de 20 km`</t>
+          <t>`p5_agregado_Técnico / Tecnológico`</t>
         </is>
       </c>
       <c r="C10">
-        <v>0.002</v>
+        <v>2511.958</v>
       </c>
       <c r="D10">
-        <v>0.002</v>
+        <v>158.479</v>
       </c>
       <c r="E10">
-        <v>0.002</v>
+        <v>39815.565</v>
       </c>
       <c r="F10">
-        <v>-2190.314</v>
+        <v>5.553</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -646,23 +646,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>`p5_agregado_Primaria o menos`</t>
+          <t>`p7_agregado_Desocupado o inactivo`</t>
         </is>
       </c>
       <c r="C11">
-        <v>21.818</v>
+        <v>0.13</v>
       </c>
       <c r="D11">
-        <v>1.543</v>
+        <v>0.003</v>
       </c>
       <c r="E11">
-        <v>308.532</v>
+        <v>4.895</v>
       </c>
       <c r="F11">
-        <v>2.281</v>
+        <v>-1.102</v>
       </c>
       <c r="G11">
-        <v>0.0226</v>
+        <v>0.2703</v>
       </c>
     </row>
     <row r="12">
@@ -673,23 +673,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>`p5_agregado_Técnico / Tecnológico`</t>
+          <t>`p7_agregado_Trabajo doméstico no remunerado`</t>
         </is>
       </c>
       <c r="C12">
-        <v>2.087</v>
+        <v>0.597</v>
       </c>
       <c r="D12">
-        <v>0.162</v>
+        <v>0.023</v>
       </c>
       <c r="E12">
-        <v>26.831</v>
+        <v>15.25</v>
       </c>
       <c r="F12">
-        <v>0.5649999999999999</v>
+        <v>-0.312</v>
       </c>
       <c r="G12">
-        <v>0.5722</v>
+        <v>0.7552</v>
       </c>
     </row>
     <row r="13">
@@ -700,23 +700,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>`p7_agregado_Desocupado o inactivo`</t>
+          <t>p28_importancia_comodidad</t>
         </is>
       </c>
       <c r="C13">
-        <v>1.021</v>
+        <v>0.313</v>
       </c>
       <c r="D13">
-        <v>0.051</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="E13">
-        <v>20.541</v>
+        <v>1.109</v>
       </c>
       <c r="F13">
-        <v>0.014</v>
+        <v>-1.799</v>
       </c>
       <c r="G13">
-        <v>0.989</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -727,23 +727,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>`p7_agregado_Ocupado/a`</t>
+          <t>p28_importancia_costo_compra</t>
         </is>
       </c>
       <c r="C14">
-        <v>7.888</v>
+        <v>2.176</v>
       </c>
       <c r="D14">
-        <v>1.397</v>
+        <v>0.784</v>
       </c>
       <c r="E14">
-        <v>44.538</v>
+        <v>6.04</v>
       </c>
       <c r="F14">
-        <v>2.339</v>
+        <v>1.492</v>
       </c>
       <c r="G14">
-        <v>0.0194</v>
+        <v>0.1357</v>
       </c>
     </row>
     <row r="15">
@@ -754,23 +754,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>`p7_agregado_Trabajo doméstico no remunerado`</t>
+          <t>p28_importancia_costo_uso</t>
         </is>
       </c>
       <c r="C15">
-        <v>4.774</v>
+        <v>0.418</v>
       </c>
       <c r="D15">
-        <v>0.316</v>
+        <v>0.161</v>
       </c>
       <c r="E15">
-        <v>72.23999999999999</v>
+        <v>1.084</v>
       </c>
       <c r="F15">
-        <v>1.128</v>
+        <v>-1.794</v>
       </c>
       <c r="G15">
-        <v>0.2594</v>
+        <v>0.0728</v>
       </c>
     </row>
     <row r="16">
@@ -781,23 +781,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>p28_importancia_comodidad</t>
+          <t>p28_importancia_emisiones</t>
         </is>
       </c>
       <c r="C16">
-        <v>0.316</v>
+        <v>0.918</v>
       </c>
       <c r="D16">
-        <v>0.089</v>
+        <v>0.357</v>
       </c>
       <c r="E16">
-        <v>1.116</v>
+        <v>2.356</v>
       </c>
       <c r="F16">
-        <v>-1.79</v>
+        <v>-0.178</v>
       </c>
       <c r="G16">
-        <v>0.0735</v>
+        <v>0.8585</v>
       </c>
     </row>
     <row r="17">
@@ -808,23 +808,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>p28_importancia_costo_compra</t>
+          <t>p28_importancia_siniestralidad</t>
         </is>
       </c>
       <c r="C17">
-        <v>2.178</v>
+        <v>1.978</v>
       </c>
       <c r="D17">
-        <v>0.784</v>
+        <v>0.761</v>
       </c>
       <c r="E17">
-        <v>6.048</v>
+        <v>5.139</v>
       </c>
       <c r="F17">
-        <v>1.493</v>
+        <v>1.4</v>
       </c>
       <c r="G17">
-        <v>0.1354</v>
+        <v>0.1616</v>
       </c>
     </row>
     <row r="18">
@@ -835,23 +835,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>p28_importancia_costo_uso</t>
+          <t>p28_importancia_tiempo</t>
         </is>
       </c>
       <c r="C18">
-        <v>0.419</v>
+        <v>1.041</v>
       </c>
       <c r="D18">
-        <v>0.161</v>
+        <v>0.332</v>
       </c>
       <c r="E18">
-        <v>1.086</v>
+        <v>3.264</v>
       </c>
       <c r="F18">
-        <v>-1.79</v>
+        <v>0.068</v>
       </c>
       <c r="G18">
-        <v>0.0735</v>
+        <v>0.9456</v>
       </c>
     </row>
     <row r="19">
@@ -862,23 +862,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>p28_importancia_emisiones</t>
+          <t>p32_contaminacion_likert</t>
         </is>
       </c>
       <c r="C19">
-        <v>0.918</v>
+        <v>0.121</v>
       </c>
       <c r="D19">
+        <v>0.041</v>
+      </c>
+      <c r="E19">
         <v>0.357</v>
       </c>
-      <c r="E19">
-        <v>2.355</v>
-      </c>
       <c r="F19">
-        <v>-0.179</v>
+        <v>-3.827</v>
       </c>
       <c r="G19">
-        <v>0.8582</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="20">
@@ -889,23 +889,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>p28_importancia_siniestralidad</t>
+          <t>p36_influencia_amigos</t>
         </is>
       </c>
       <c r="C20">
-        <v>1.966</v>
+        <v>1.064</v>
       </c>
       <c r="D20">
-        <v>0.757</v>
+        <v>0.403</v>
       </c>
       <c r="E20">
-        <v>5.105</v>
+        <v>2.812</v>
       </c>
       <c r="F20">
-        <v>1.389</v>
+        <v>0.125</v>
       </c>
       <c r="G20">
-        <v>0.1648</v>
+        <v>0.9004</v>
       </c>
     </row>
     <row r="21">
@@ -916,23 +916,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>p28_importancia_tiempo</t>
+          <t>p37_influencia_familia</t>
         </is>
       </c>
       <c r="C21">
-        <v>1.038</v>
+        <v>1.516</v>
       </c>
       <c r="D21">
-        <v>0.331</v>
+        <v>0.62</v>
       </c>
       <c r="E21">
-        <v>3.256</v>
+        <v>3.706</v>
       </c>
       <c r="F21">
-        <v>0.064</v>
+        <v>0.912</v>
       </c>
       <c r="G21">
-        <v>0.9486</v>
+        <v>0.3617</v>
       </c>
     </row>
     <row r="22">
@@ -943,23 +943,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>p32_contaminacion_likert</t>
+          <t>p40_Mujer</t>
         </is>
       </c>
       <c r="C22">
-        <v>0.121</v>
+        <v>0.323</v>
       </c>
       <c r="D22">
-        <v>0.041</v>
+        <v>0.048</v>
       </c>
       <c r="E22">
-        <v>0.356</v>
+        <v>2.194</v>
       </c>
       <c r="F22">
-        <v>-3.829</v>
+        <v>-1.156</v>
       </c>
       <c r="G22">
-        <v>0.0001</v>
+        <v>0.2477</v>
       </c>
     </row>
     <row r="23">
@@ -970,23 +970,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>p36_influencia_amigos</t>
+          <t>p5_agregado_Secundaria</t>
         </is>
       </c>
       <c r="C23">
-        <v>1.068</v>
+        <v>13245.682</v>
       </c>
       <c r="D23">
-        <v>0.404</v>
+        <v>1945</v>
       </c>
       <c r="E23">
-        <v>2.825</v>
+        <v>90204.652</v>
       </c>
       <c r="F23">
-        <v>0.133</v>
+        <v>9.696999999999999</v>
       </c>
       <c r="G23">
-        <v>0.8941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -997,23 +997,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>p37_influencia_familia</t>
+          <t>p7_agregado_Estudiante</t>
         </is>
       </c>
       <c r="C24">
-        <v>1.514</v>
+        <v>45.687</v>
       </c>
       <c r="D24">
-        <v>0.619</v>
+        <v>0.473</v>
       </c>
       <c r="E24">
-        <v>3.705</v>
+        <v>4414.129</v>
       </c>
       <c r="F24">
-        <v>0.908</v>
+        <v>1.639</v>
       </c>
       <c r="G24">
-        <v>0.3637</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="25">
@@ -1024,23 +1024,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>p40_Hombre</t>
+          <t>p7_agregado_Otro</t>
         </is>
       </c>
       <c r="C25">
-        <v>0.867</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0.196</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>3.835</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>-0.188</v>
+        <v>-357134.912</v>
       </c>
       <c r="G25">
-        <v>0.8507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1051,23 +1051,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>p40_Mujer</t>
+          <t>p9_estrato3_Bajo</t>
         </is>
       </c>
       <c r="C26">
-        <v>0.28</v>
+        <v>1.879</v>
       </c>
       <c r="D26">
-        <v>0.063</v>
+        <v>0.062</v>
       </c>
       <c r="E26">
-        <v>1.238</v>
+        <v>57.043</v>
       </c>
       <c r="F26">
-        <v>-1.679</v>
+        <v>0.362</v>
       </c>
       <c r="G26">
-        <v>0.09320000000000001</v>
+        <v>0.7173</v>
       </c>
     </row>
     <row r="27">
@@ -1078,23 +1078,23 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>p5_agregado_Secundaria</t>
+          <t>p9_estrato3_Medio</t>
         </is>
       </c>
       <c r="C27">
-        <v>11.153</v>
+        <v>0.832</v>
       </c>
       <c r="D27">
-        <v>2.136</v>
+        <v>0.035</v>
       </c>
       <c r="E27">
-        <v>58.222</v>
+        <v>19.731</v>
       </c>
       <c r="F27">
-        <v>2.86</v>
+        <v>-0.114</v>
       </c>
       <c r="G27">
-        <v>0.0042</v>
+        <v>0.9092</v>
       </c>
     </row>
     <row r="28">
@@ -1105,185 +1105,185 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>p5_agregado_Superior</t>
+          <t>tiempo_total</t>
         </is>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1.098</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1.038</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1.161</v>
       </c>
       <c r="F28">
-        <v>-2080.228</v>
+        <v>3.267</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Moto privada</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>p7_agregado_Estudiante</t>
+          <t>(Intercept)</t>
         </is>
       </c>
       <c r="C29">
-        <v>351.401</v>
+        <v>4.269</v>
       </c>
       <c r="D29">
-        <v>8.443</v>
+        <v>0.013</v>
       </c>
       <c r="E29">
-        <v>14625.25</v>
+        <v>1378.841</v>
       </c>
       <c r="F29">
-        <v>3.081</v>
+        <v>0.492</v>
       </c>
       <c r="G29">
-        <v>0.0021</v>
+        <v>0.6225000000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Moto privada</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>p7_agregado_Otro</t>
+          <t>`edad_r2_18 - 34 años`</t>
         </is>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>0.387</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="F30">
-        <v>-43242.973</v>
+        <v>-1.219</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>0.2228</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Moto privada</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>p9_estrato3_Alto</t>
+          <t>`edad_r2_55 - 80 años`</t>
         </is>
       </c>
       <c r="C31">
-        <v>0.537</v>
+        <v>0.148</v>
       </c>
       <c r="D31">
-        <v>0.068</v>
+        <v>0.014</v>
       </c>
       <c r="E31">
-        <v>4.24</v>
+        <v>1.612</v>
       </c>
       <c r="F31">
-        <v>-0.59</v>
+        <v>-1.568</v>
       </c>
       <c r="G31">
-        <v>0.5548999999999999</v>
+        <v>0.1168</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Moto privada</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>p9_estrato3_Bajo</t>
+          <t>`p22_Entre 11 y 15 km`</t>
         </is>
       </c>
       <c r="C32">
-        <v>1.006</v>
+        <v>2.636</v>
       </c>
       <c r="D32">
-        <v>0.152</v>
+        <v>0.365</v>
       </c>
       <c r="E32">
-        <v>6.647</v>
+        <v>19.056</v>
       </c>
       <c r="F32">
-        <v>0.006</v>
+        <v>0.96</v>
       </c>
       <c r="G32">
-        <v>0.9951</v>
+        <v>0.3369</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Moto privada</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>p9_estrato3_Medio</t>
+          <t>`p22_Entre 16 y 20 km`</t>
         </is>
       </c>
       <c r="C33">
-        <v>0.45</v>
+        <v>19.796</v>
       </c>
       <c r="D33">
-        <v>0.079</v>
+        <v>1.256</v>
       </c>
       <c r="E33">
-        <v>2.557</v>
+        <v>312.12</v>
       </c>
       <c r="F33">
-        <v>-0.901</v>
+        <v>2.122</v>
       </c>
       <c r="G33">
-        <v>0.3675</v>
+        <v>0.0339</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Moto privada</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>tiempo_total</t>
+          <t>`p22_Entre 6 y 10 km`</t>
         </is>
       </c>
       <c r="C34">
-        <v>1.098</v>
+        <v>2.484</v>
       </c>
       <c r="D34">
-        <v>1.039</v>
+        <v>0.305</v>
       </c>
       <c r="E34">
-        <v>1.162</v>
+        <v>20.258</v>
       </c>
       <c r="F34">
-        <v>3.285</v>
+        <v>0.85</v>
       </c>
       <c r="G34">
-        <v>0.001</v>
+        <v>0.3954</v>
       </c>
     </row>
     <row r="35">
@@ -1294,23 +1294,23 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>(Intercept)</t>
+          <t>`p22_Menos de 5 km`</t>
         </is>
       </c>
       <c r="C35">
-        <v>1.119</v>
+        <v>4.453</v>
       </c>
       <c r="D35">
-        <v>0.163</v>
+        <v>0.391</v>
       </c>
       <c r="E35">
-        <v>7.705</v>
+        <v>50.713</v>
       </c>
       <c r="F35">
-        <v>0.114</v>
+        <v>1.204</v>
       </c>
       <c r="G35">
-        <v>0.909</v>
+        <v>0.2288</v>
       </c>
     </row>
     <row r="36">
@@ -1321,23 +1321,23 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>`edad_r2_18 - 34 años`</t>
+          <t>`p5_agregado_Primaria o menos`</t>
         </is>
       </c>
       <c r="C36">
-        <v>1.052</v>
+        <v>3.049</v>
       </c>
       <c r="D36">
-        <v>0.306</v>
+        <v>0.078</v>
       </c>
       <c r="E36">
-        <v>3.622</v>
+        <v>118.503</v>
       </c>
       <c r="F36">
-        <v>0.081</v>
+        <v>0.597</v>
       </c>
       <c r="G36">
-        <v>0.9355</v>
+        <v>0.5505</v>
       </c>
     </row>
     <row r="37">
@@ -1348,23 +1348,23 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>`edad_r2_35 - 54 años`</t>
+          <t>`p5_agregado_Técnico / Tecnológico`</t>
         </is>
       </c>
       <c r="C37">
-        <v>2.698</v>
+        <v>8.278</v>
       </c>
       <c r="D37">
-        <v>0.741</v>
+        <v>1.218</v>
       </c>
       <c r="E37">
-        <v>9.827999999999999</v>
+        <v>56.249</v>
       </c>
       <c r="F37">
-        <v>1.505</v>
+        <v>2.162</v>
       </c>
       <c r="G37">
-        <v>0.1323</v>
+        <v>0.0306</v>
       </c>
     </row>
     <row r="38">
@@ -1375,23 +1375,23 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>`edad_r2_55 - 80 años`</t>
+          <t>`p7_agregado_Desocupado o inactivo`</t>
         </is>
       </c>
       <c r="C38">
-        <v>0.394</v>
+        <v>0.447</v>
       </c>
       <c r="D38">
-        <v>0.079</v>
+        <v>0.029</v>
       </c>
       <c r="E38">
-        <v>1.962</v>
+        <v>6.816</v>
       </c>
       <c r="F38">
-        <v>-1.137</v>
+        <v>-0.579</v>
       </c>
       <c r="G38">
-        <v>0.2555</v>
+        <v>0.5623</v>
       </c>
     </row>
     <row r="39">
@@ -1402,23 +1402,23 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>`p22_Entre 11 y 15 km`</t>
+          <t>`p7_agregado_Trabajo doméstico no remunerado`</t>
         </is>
       </c>
       <c r="C39">
-        <v>0.753</v>
+        <v>2.293</v>
       </c>
       <c r="D39">
-        <v>0.218</v>
+        <v>0.171</v>
       </c>
       <c r="E39">
-        <v>2.599</v>
+        <v>30.727</v>
       </c>
       <c r="F39">
-        <v>-0.449</v>
+        <v>0.627</v>
       </c>
       <c r="G39">
-        <v>0.6538</v>
+        <v>0.5309</v>
       </c>
     </row>
     <row r="40">
@@ -1429,23 +1429,23 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>`p22_Entre 16 y 20 km`</t>
+          <t>p28_importancia_comodidad</t>
         </is>
       </c>
       <c r="C40">
-        <v>5.712</v>
+        <v>0.722</v>
       </c>
       <c r="D40">
-        <v>0.743</v>
+        <v>0.253</v>
       </c>
       <c r="E40">
-        <v>43.917</v>
+        <v>2.062</v>
       </c>
       <c r="F40">
-        <v>1.674</v>
+        <v>-0.608</v>
       </c>
       <c r="G40">
-        <v>0.094</v>
+        <v>0.5433</v>
       </c>
     </row>
     <row r="41">
@@ -1456,23 +1456,23 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>`p22_Entre 6 y 10 km`</t>
+          <t>p28_importancia_costo_compra</t>
         </is>
       </c>
       <c r="C41">
-        <v>0.713</v>
+        <v>1.354</v>
       </c>
       <c r="D41">
-        <v>0.21</v>
+        <v>0.767</v>
       </c>
       <c r="E41">
-        <v>2.426</v>
+        <v>2.39</v>
       </c>
       <c r="F41">
-        <v>-0.541</v>
+        <v>1.046</v>
       </c>
       <c r="G41">
-        <v>0.5885</v>
+        <v>0.2955</v>
       </c>
     </row>
     <row r="42">
@@ -1483,23 +1483,23 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>`p22_Menos de 5 km`</t>
+          <t>p28_importancia_costo_uso</t>
         </is>
       </c>
       <c r="C42">
-        <v>1.277</v>
+        <v>0.489</v>
       </c>
       <c r="D42">
-        <v>0.266</v>
+        <v>0.23</v>
       </c>
       <c r="E42">
-        <v>6.14</v>
+        <v>1.037</v>
       </c>
       <c r="F42">
-        <v>0.306</v>
+        <v>-1.865</v>
       </c>
       <c r="G42">
-        <v>0.7598</v>
+        <v>0.0622</v>
       </c>
     </row>
     <row r="43">
@@ -1510,23 +1510,23 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>`p22_Más de 20 km`</t>
+          <t>p28_importancia_emisiones</t>
         </is>
       </c>
       <c r="C43">
-        <v>0.285</v>
+        <v>0.634</v>
       </c>
       <c r="D43">
-        <v>0.062</v>
+        <v>0.345</v>
       </c>
       <c r="E43">
-        <v>1.311</v>
+        <v>1.164</v>
       </c>
       <c r="F43">
-        <v>-1.612</v>
+        <v>-1.471</v>
       </c>
       <c r="G43">
-        <v>0.107</v>
+        <v>0.1413</v>
       </c>
     </row>
     <row r="44">
@@ -1537,23 +1537,23 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>`p5_agregado_Primaria o menos`</t>
+          <t>p28_importancia_siniestralidad</t>
         </is>
       </c>
       <c r="C44">
-        <v>0.9399999999999999</v>
+        <v>2.207</v>
       </c>
       <c r="D44">
-        <v>0.07099999999999999</v>
+        <v>1.154</v>
       </c>
       <c r="E44">
-        <v>12.397</v>
+        <v>4.219</v>
       </c>
       <c r="F44">
-        <v>-0.047</v>
+        <v>2.395</v>
       </c>
       <c r="G44">
-        <v>0.9628</v>
+        <v>0.0166</v>
       </c>
     </row>
     <row r="45">
@@ -1564,23 +1564,23 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>`p5_agregado_Técnico / Tecnológico`</t>
+          <t>p28_importancia_tiempo</t>
         </is>
       </c>
       <c r="C45">
-        <v>2.509</v>
+        <v>1.457</v>
       </c>
       <c r="D45">
-        <v>0.571</v>
+        <v>0.632</v>
       </c>
       <c r="E45">
-        <v>11.037</v>
+        <v>3.361</v>
       </c>
       <c r="F45">
-        <v>1.217</v>
+        <v>0.883</v>
       </c>
       <c r="G45">
-        <v>0.2234</v>
+        <v>0.3772</v>
       </c>
     </row>
     <row r="46">
@@ -1591,23 +1591,23 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>`p7_agregado_Desocupado o inactivo`</t>
+          <t>p32_contaminacion_likert</t>
         </is>
       </c>
       <c r="C46">
-        <v>10.889</v>
+        <v>0.536</v>
       </c>
       <c r="D46">
-        <v>0.998</v>
+        <v>0.24</v>
       </c>
       <c r="E46">
-        <v>118.82</v>
+        <v>1.2</v>
       </c>
       <c r="F46">
-        <v>1.958</v>
+        <v>-1.517</v>
       </c>
       <c r="G46">
-        <v>0.0502</v>
+        <v>0.1293</v>
       </c>
     </row>
     <row r="47">
@@ -1618,23 +1618,23 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>`p7_agregado_Ocupado/a`</t>
+          <t>p36_influencia_amigos</t>
         </is>
       </c>
       <c r="C47">
-        <v>24.228</v>
+        <v>0.986</v>
       </c>
       <c r="D47">
-        <v>5.761</v>
+        <v>0.495</v>
       </c>
       <c r="E47">
-        <v>101.895</v>
+        <v>1.964</v>
       </c>
       <c r="F47">
-        <v>4.349</v>
+        <v>-0.039</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>0.9686</v>
       </c>
     </row>
     <row r="48">
@@ -1645,23 +1645,23 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>`p7_agregado_Trabajo doméstico no remunerado`</t>
+          <t>p37_influencia_familia</t>
         </is>
       </c>
       <c r="C48">
-        <v>56.081</v>
+        <v>1.282</v>
       </c>
       <c r="D48">
-        <v>5.473</v>
+        <v>0.776</v>
       </c>
       <c r="E48">
-        <v>574.677</v>
+        <v>2.117</v>
       </c>
       <c r="F48">
-        <v>3.392</v>
+        <v>0.97</v>
       </c>
       <c r="G48">
-        <v>0.0007</v>
+        <v>0.3321</v>
       </c>
     </row>
     <row r="49">
@@ -1672,23 +1672,23 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>p28_importancia_comodidad</t>
+          <t>p40_Mujer</t>
         </is>
       </c>
       <c r="C49">
-        <v>0.727</v>
+        <v>0.253</v>
       </c>
       <c r="D49">
-        <v>0.255</v>
+        <v>0.064</v>
       </c>
       <c r="E49">
-        <v>2.07</v>
+        <v>0.99</v>
       </c>
       <c r="F49">
-        <v>-0.598</v>
+        <v>-1.974</v>
       </c>
       <c r="G49">
-        <v>0.5499000000000001</v>
+        <v>0.0484</v>
       </c>
     </row>
     <row r="50">
@@ -1699,23 +1699,23 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>p28_importancia_costo_compra</t>
+          <t>p5_agregado_Secundaria</t>
         </is>
       </c>
       <c r="C50">
-        <v>1.353</v>
+        <v>5.058</v>
       </c>
       <c r="D50">
-        <v>0.767</v>
+        <v>0.765</v>
       </c>
       <c r="E50">
-        <v>2.387</v>
+        <v>33.462</v>
       </c>
       <c r="F50">
-        <v>1.045</v>
+        <v>1.682</v>
       </c>
       <c r="G50">
-        <v>0.296</v>
+        <v>0.0927</v>
       </c>
     </row>
     <row r="51">
@@ -1726,23 +1726,23 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>p28_importancia_costo_uso</t>
+          <t>p7_agregado_Estudiante</t>
         </is>
       </c>
       <c r="C51">
-        <v>0.49</v>
+        <v>0.286</v>
       </c>
       <c r="D51">
-        <v>0.231</v>
+        <v>0.004</v>
       </c>
       <c r="E51">
-        <v>1.038</v>
+        <v>21.137</v>
       </c>
       <c r="F51">
-        <v>-1.863</v>
+        <v>-0.571</v>
       </c>
       <c r="G51">
-        <v>0.0624</v>
+        <v>0.5682</v>
       </c>
     </row>
     <row r="52">
@@ -1753,23 +1753,23 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>p28_importancia_emisiones</t>
+          <t>p7_agregado_Otro</t>
         </is>
       </c>
       <c r="C52">
-        <v>0.635</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>0.346</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>1.166</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>-1.465</v>
+        <v>-347872.912</v>
       </c>
       <c r="G52">
-        <v>0.1429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1780,23 +1780,23 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>p28_importancia_siniestralidad</t>
+          <t>p9_estrato3_Bajo</t>
         </is>
       </c>
       <c r="C53">
-        <v>2.198</v>
+        <v>8.148</v>
       </c>
       <c r="D53">
-        <v>1.151</v>
+        <v>1.15</v>
       </c>
       <c r="E53">
-        <v>4.197</v>
+        <v>57.713</v>
       </c>
       <c r="F53">
-        <v>2.387</v>
+        <v>2.1</v>
       </c>
       <c r="G53">
-        <v>0.017</v>
+        <v>0.0357</v>
       </c>
     </row>
     <row r="54">
@@ -1807,23 +1807,23 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>p28_importancia_tiempo</t>
+          <t>p9_estrato3_Medio</t>
         </is>
       </c>
       <c r="C54">
-        <v>1.455</v>
+        <v>4.969</v>
       </c>
       <c r="D54">
-        <v>0.631</v>
+        <v>0.927</v>
       </c>
       <c r="E54">
-        <v>3.352</v>
+        <v>26.64</v>
       </c>
       <c r="F54">
-        <v>0.88</v>
+        <v>1.872</v>
       </c>
       <c r="G54">
-        <v>0.379</v>
+        <v>0.0613</v>
       </c>
     </row>
     <row r="55">
@@ -1834,347 +1834,347 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>p32_contaminacion_likert</t>
+          <t>tiempo_total</t>
         </is>
       </c>
       <c r="C55">
-        <v>0.536</v>
+        <v>0.987</v>
       </c>
       <c r="D55">
-        <v>0.24</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="E55">
-        <v>1.2</v>
+        <v>1.041</v>
       </c>
       <c r="F55">
-        <v>-1.516</v>
+        <v>-0.476</v>
       </c>
       <c r="G55">
-        <v>0.1295</v>
+        <v>0.6341</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Taxi / Plataforma</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>p36_influencia_amigos</t>
+          <t>(Intercept)</t>
         </is>
       </c>
       <c r="C56">
-        <v>0.988</v>
+        <v>0.14</v>
       </c>
       <c r="D56">
-        <v>0.496</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>1.967</v>
+        <v>79.724</v>
       </c>
       <c r="F56">
-        <v>-0.035</v>
+        <v>-0.607</v>
       </c>
       <c r="G56">
-        <v>0.9722</v>
+        <v>0.544</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Taxi / Plataforma</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>p37_influencia_familia</t>
+          <t>`edad_r2_18 - 34 años`</t>
         </is>
       </c>
       <c r="C57">
-        <v>1.28</v>
+        <v>0.415</v>
       </c>
       <c r="D57">
-        <v>0.775</v>
+        <v>0.074</v>
       </c>
       <c r="E57">
-        <v>2.114</v>
+        <v>2.32</v>
       </c>
       <c r="F57">
-        <v>0.966</v>
+        <v>-1.001</v>
       </c>
       <c r="G57">
-        <v>0.3343</v>
+        <v>0.3168</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Taxi / Plataforma</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>p40_Hombre</t>
+          <t>`edad_r2_55 - 80 años`</t>
         </is>
       </c>
       <c r="C58">
-        <v>2.101</v>
+        <v>0.835</v>
       </c>
       <c r="D58">
-        <v>0.63</v>
+        <v>0.078</v>
       </c>
       <c r="E58">
-        <v>7.006</v>
+        <v>8.914999999999999</v>
       </c>
       <c r="F58">
-        <v>1.208</v>
+        <v>-0.149</v>
       </c>
       <c r="G58">
-        <v>0.2272</v>
+        <v>0.8812</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Taxi / Plataforma</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>p40_Mujer</t>
+          <t>`p22_Entre 11 y 15 km`</t>
         </is>
       </c>
       <c r="C59">
-        <v>0.533</v>
+        <v>0.868</v>
       </c>
       <c r="D59">
-        <v>0.167</v>
+        <v>0.1</v>
       </c>
       <c r="E59">
-        <v>1.696</v>
+        <v>7.514</v>
       </c>
       <c r="F59">
-        <v>-1.066</v>
+        <v>-0.128</v>
       </c>
       <c r="G59">
-        <v>0.2864</v>
+        <v>0.8979</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Taxi / Plataforma</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>p5_agregado_Secundaria</t>
+          <t>`p22_Entre 16 y 20 km`</t>
         </is>
       </c>
       <c r="C60">
-        <v>1.544</v>
+        <v>9.904</v>
       </c>
       <c r="D60">
-        <v>0.458</v>
+        <v>0.577</v>
       </c>
       <c r="E60">
-        <v>5.207</v>
+        <v>170.095</v>
       </c>
       <c r="F60">
-        <v>0.701</v>
+        <v>1.581</v>
       </c>
       <c r="G60">
-        <v>0.4834</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Taxi / Plataforma</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>p5_agregado_Superior</t>
+          <t>`p22_Entre 6 y 10 km`</t>
         </is>
       </c>
       <c r="C61">
-        <v>0.307</v>
+        <v>1.166</v>
       </c>
       <c r="D61">
-        <v>0.064</v>
+        <v>0.124</v>
       </c>
       <c r="E61">
-        <v>1.48</v>
+        <v>10.924</v>
       </c>
       <c r="F61">
-        <v>-1.472</v>
+        <v>0.134</v>
       </c>
       <c r="G61">
-        <v>0.1411</v>
+        <v>0.893</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Taxi / Plataforma</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>p7_agregado_Estudiante</t>
+          <t>`p22_Menos de 5 km`</t>
         </is>
       </c>
       <c r="C62">
-        <v>6.74</v>
+        <v>3.561</v>
       </c>
       <c r="D62">
-        <v>0.226</v>
+        <v>0.303</v>
       </c>
       <c r="E62">
-        <v>200.768</v>
+        <v>41.779</v>
       </c>
       <c r="F62">
-        <v>1.102</v>
+        <v>1.011</v>
       </c>
       <c r="G62">
-        <v>0.2705</v>
+        <v>0.3121</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Taxi / Plataforma</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>p7_agregado_Otro</t>
+          <t>`p5_agregado_Primaria o menos`</t>
         </is>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>7.597</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>0.173</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>333.94</v>
       </c>
       <c r="F63">
-        <v>-68172.47199999999</v>
+        <v>1.051</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>0.2935</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Taxi / Plataforma</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>p9_estrato3_Alto</t>
+          <t>`p5_agregado_Técnico / Tecnológico`</t>
         </is>
       </c>
       <c r="C64">
-        <v>0.301</v>
+        <v>15.699</v>
       </c>
       <c r="D64">
-        <v>0.098</v>
+        <v>1.624</v>
       </c>
       <c r="E64">
-        <v>0.927</v>
+        <v>151.8</v>
       </c>
       <c r="F64">
-        <v>-2.091</v>
+        <v>2.379</v>
       </c>
       <c r="G64">
-        <v>0.0365</v>
+        <v>0.0174</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Taxi / Plataforma</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>p9_estrato3_Bajo</t>
+          <t>`p7_agregado_Desocupado o inactivo`</t>
         </is>
       </c>
       <c r="C65">
-        <v>2.456</v>
+        <v>2.79</v>
       </c>
       <c r="D65">
-        <v>0.657</v>
+        <v>0.199</v>
       </c>
       <c r="E65">
-        <v>9.179</v>
+        <v>39.122</v>
       </c>
       <c r="F65">
-        <v>1.336</v>
+        <v>0.761</v>
       </c>
       <c r="G65">
-        <v>0.1816</v>
+        <v>0.4464</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Taxi / Plataforma</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>p9_estrato3_Medio</t>
+          <t>`p7_agregado_Trabajo doméstico no remunerado`</t>
         </is>
       </c>
       <c r="C66">
-        <v>1.511</v>
+        <v>4.749</v>
       </c>
       <c r="D66">
-        <v>0.439</v>
+        <v>0.383</v>
       </c>
       <c r="E66">
-        <v>5.209</v>
+        <v>58.894</v>
       </c>
       <c r="F66">
-        <v>0.654</v>
+        <v>1.213</v>
       </c>
       <c r="G66">
-        <v>0.513</v>
+        <v>0.2252</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Taxi / Plataforma</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>tiempo_total</t>
+          <t>p28_importancia_comodidad</t>
         </is>
       </c>
       <c r="C67">
-        <v>0.988</v>
+        <v>0.827</v>
       </c>
       <c r="D67">
-        <v>0.9370000000000001</v>
+        <v>0.275</v>
       </c>
       <c r="E67">
-        <v>1.042</v>
+        <v>2.489</v>
       </c>
       <c r="F67">
-        <v>-0.447</v>
+        <v>-0.338</v>
       </c>
       <c r="G67">
-        <v>0.655</v>
+        <v>0.7354000000000001</v>
       </c>
     </row>
     <row r="68">
@@ -2185,23 +2185,23 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>(Intercept)</t>
+          <t>p28_importancia_costo_compra</t>
         </is>
       </c>
       <c r="C68">
-        <v>0.656</v>
+        <v>1.258</v>
       </c>
       <c r="D68">
-        <v>0.082</v>
+        <v>0.677</v>
       </c>
       <c r="E68">
-        <v>5.266</v>
+        <v>2.338</v>
       </c>
       <c r="F68">
-        <v>-0.397</v>
+        <v>0.727</v>
       </c>
       <c r="G68">
-        <v>0.6914</v>
+        <v>0.4671</v>
       </c>
     </row>
     <row r="69">
@@ -2212,23 +2212,23 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>`edad_r2_18 - 34 años`</t>
+          <t>p28_importancia_costo_uso</t>
         </is>
       </c>
       <c r="C69">
-        <v>0.518</v>
+        <v>0.614</v>
       </c>
       <c r="D69">
-        <v>0.136</v>
+        <v>0.278</v>
       </c>
       <c r="E69">
-        <v>1.975</v>
+        <v>1.356</v>
       </c>
       <c r="F69">
-        <v>-0.963</v>
+        <v>-1.207</v>
       </c>
       <c r="G69">
-        <v>0.3354</v>
+        <v>0.2275</v>
       </c>
     </row>
     <row r="70">
@@ -2239,23 +2239,23 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>`edad_r2_35 - 54 años`</t>
+          <t>p28_importancia_emisiones</t>
         </is>
       </c>
       <c r="C70">
-        <v>1.239</v>
+        <v>0.823</v>
       </c>
       <c r="D70">
-        <v>0.315</v>
+        <v>0.423</v>
       </c>
       <c r="E70">
-        <v>4.869</v>
+        <v>1.602</v>
       </c>
       <c r="F70">
-        <v>0.307</v>
+        <v>-0.573</v>
       </c>
       <c r="G70">
-        <v>0.7588</v>
+        <v>0.5663</v>
       </c>
     </row>
     <row r="71">
@@ -2266,23 +2266,23 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>`edad_r2_55 - 80 años`</t>
+          <t>p28_importancia_siniestralidad</t>
         </is>
       </c>
       <c r="C71">
-        <v>1.022</v>
+        <v>1.861</v>
       </c>
       <c r="D71">
-        <v>0.207</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="E71">
-        <v>5.051</v>
+        <v>3.716</v>
       </c>
       <c r="F71">
-        <v>0.026</v>
+        <v>1.76</v>
       </c>
       <c r="G71">
-        <v>0.9791</v>
+        <v>0.0784</v>
       </c>
     </row>
     <row r="72">
@@ -2293,23 +2293,23 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>`p22_Entre 11 y 15 km`</t>
+          <t>p28_importancia_tiempo</t>
         </is>
       </c>
       <c r="C72">
-        <v>0.389</v>
+        <v>0.994</v>
       </c>
       <c r="D72">
-        <v>0.093</v>
+        <v>0.407</v>
       </c>
       <c r="E72">
-        <v>1.622</v>
+        <v>2.429</v>
       </c>
       <c r="F72">
-        <v>-1.296</v>
+        <v>-0.013</v>
       </c>
       <c r="G72">
-        <v>0.1949</v>
+        <v>0.9893999999999999</v>
       </c>
     </row>
     <row r="73">
@@ -2320,23 +2320,23 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>`p22_Entre 16 y 20 km`</t>
+          <t>p32_contaminacion_likert</t>
         </is>
       </c>
       <c r="C73">
-        <v>4.47</v>
+        <v>0.879</v>
       </c>
       <c r="D73">
-        <v>0.523</v>
+        <v>0.374</v>
       </c>
       <c r="E73">
-        <v>38.232</v>
+        <v>2.069</v>
       </c>
       <c r="F73">
-        <v>1.368</v>
+        <v>-0.295</v>
       </c>
       <c r="G73">
-        <v>0.1714</v>
+        <v>0.7681</v>
       </c>
     </row>
     <row r="74">
@@ -2347,23 +2347,23 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>`p22_Entre 6 y 10 km`</t>
+          <t>p36_influencia_amigos</t>
         </is>
       </c>
       <c r="C74">
-        <v>0.526</v>
+        <v>1.022</v>
       </c>
       <c r="D74">
-        <v>0.136</v>
+        <v>0.49</v>
       </c>
       <c r="E74">
-        <v>2.034</v>
+        <v>2.134</v>
       </c>
       <c r="F74">
-        <v>-0.9320000000000001</v>
+        <v>0.058</v>
       </c>
       <c r="G74">
-        <v>0.3515</v>
+        <v>0.9534</v>
       </c>
     </row>
     <row r="75">
@@ -2374,23 +2374,23 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>`p22_Menos de 5 km`</t>
+          <t>p37_influencia_familia</t>
         </is>
       </c>
       <c r="C75">
-        <v>1.601</v>
+        <v>1.327</v>
       </c>
       <c r="D75">
-        <v>0.326</v>
+        <v>0.76</v>
       </c>
       <c r="E75">
-        <v>7.855</v>
+        <v>2.316</v>
       </c>
       <c r="F75">
-        <v>0.58</v>
+        <v>0.995</v>
       </c>
       <c r="G75">
-        <v>0.5619</v>
+        <v>0.3197</v>
       </c>
     </row>
     <row r="76">
@@ -2401,23 +2401,23 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>`p22_Más de 20 km`</t>
+          <t>p40_Mujer</t>
         </is>
       </c>
       <c r="C76">
-        <v>0.448</v>
+        <v>1.622</v>
       </c>
       <c r="D76">
-        <v>0.093</v>
+        <v>0.358</v>
       </c>
       <c r="E76">
-        <v>2.154</v>
+        <v>7.35</v>
       </c>
       <c r="F76">
-        <v>-1.002</v>
+        <v>0.627</v>
       </c>
       <c r="G76">
-        <v>0.3165</v>
+        <v>0.5304</v>
       </c>
     </row>
     <row r="77">
@@ -2428,23 +2428,23 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>`p5_agregado_Primaria o menos`</t>
+          <t>p5_agregado_Secundaria</t>
         </is>
       </c>
       <c r="C77">
-        <v>1.036</v>
+        <v>16.266</v>
       </c>
       <c r="D77">
-        <v>0.08</v>
+        <v>1.779</v>
       </c>
       <c r="E77">
-        <v>13.448</v>
+        <v>148.718</v>
       </c>
       <c r="F77">
-        <v>0.027</v>
+        <v>2.47</v>
       </c>
       <c r="G77">
-        <v>0.9784</v>
+        <v>0.0135</v>
       </c>
     </row>
     <row r="78">
@@ -2455,23 +2455,23 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>`p5_agregado_Técnico / Tecnológico`</t>
+          <t>p7_agregado_Estudiante</t>
         </is>
       </c>
       <c r="C78">
-        <v>2.11</v>
+        <v>2.564</v>
       </c>
       <c r="D78">
-        <v>0.446</v>
+        <v>0.043</v>
       </c>
       <c r="E78">
-        <v>9.981999999999999</v>
+        <v>152.639</v>
       </c>
       <c r="F78">
-        <v>0.9419999999999999</v>
+        <v>0.452</v>
       </c>
       <c r="G78">
-        <v>0.3463</v>
+        <v>0.6516</v>
       </c>
     </row>
     <row r="79">
@@ -2482,23 +2482,23 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>`p7_agregado_Desocupado o inactivo`</t>
+          <t>p7_agregado_Otro</t>
         </is>
       </c>
       <c r="C79">
-        <v>20.787</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>2.07</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>208.759</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>2.578</v>
+        <v>-669067.7929999999</v>
       </c>
       <c r="G79">
-        <v>0.009900000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2509,23 +2509,23 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>`p7_agregado_Ocupado/a`</t>
+          <t>p9_estrato3_Bajo</t>
         </is>
       </c>
       <c r="C80">
-        <v>7.427</v>
+        <v>2.125</v>
       </c>
       <c r="D80">
-        <v>1.826</v>
+        <v>0.251</v>
       </c>
       <c r="E80">
-        <v>30.204</v>
+        <v>17.989</v>
       </c>
       <c r="F80">
-        <v>2.801</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="G80">
-        <v>0.0051</v>
+        <v>0.4893</v>
       </c>
     </row>
     <row r="81">
@@ -2536,23 +2536,23 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>`p7_agregado_Trabajo doméstico no remunerado`</t>
+          <t>p9_estrato3_Medio</t>
         </is>
       </c>
       <c r="C81">
-        <v>35.654</v>
+        <v>1.623</v>
       </c>
       <c r="D81">
-        <v>3.76</v>
+        <v>0.252</v>
       </c>
       <c r="E81">
-        <v>338.101</v>
+        <v>10.456</v>
       </c>
       <c r="F81">
-        <v>3.114</v>
+        <v>0.509</v>
       </c>
       <c r="G81">
-        <v>0.0018</v>
+        <v>0.6104000000000001</v>
       </c>
     </row>
     <row r="82">
@@ -2563,509 +2563,509 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>p28_importancia_comodidad</t>
+          <t>tiempo_total</t>
         </is>
       </c>
       <c r="C82">
-        <v>0.832</v>
+        <v>0.984</v>
       </c>
       <c r="D82">
-        <v>0.277</v>
+        <v>0.929</v>
       </c>
       <c r="E82">
-        <v>2.499</v>
+        <v>1.041</v>
       </c>
       <c r="F82">
-        <v>-0.328</v>
+        <v>-0.5679999999999999</v>
       </c>
       <c r="G82">
-        <v>0.7429</v>
+        <v>0.5697</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Taxi / Plataforma</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>p28_importancia_costo_compra</t>
+          <t>(Intercept)</t>
         </is>
       </c>
       <c r="C83">
-        <v>1.257</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D83">
-        <v>0.677</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>2.335</v>
+        <v>26.54</v>
       </c>
       <c r="F83">
-        <v>0.725</v>
+        <v>-0.876</v>
       </c>
       <c r="G83">
-        <v>0.4685</v>
+        <v>0.3812</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Taxi / Plataforma</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>p28_importancia_costo_uso</t>
+          <t>`edad_r2_18 - 34 años`</t>
         </is>
       </c>
       <c r="C84">
-        <v>0.616</v>
+        <v>0.7</v>
       </c>
       <c r="D84">
-        <v>0.279</v>
+        <v>0.147</v>
       </c>
       <c r="E84">
-        <v>1.357</v>
+        <v>3.342</v>
       </c>
       <c r="F84">
-        <v>-1.203</v>
+        <v>-0.447</v>
       </c>
       <c r="G84">
-        <v>0.2288</v>
+        <v>0.6546999999999999</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Taxi / Plataforma</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>p28_importancia_emisiones</t>
+          <t>`edad_r2_55 - 80 años`</t>
         </is>
       </c>
       <c r="C85">
-        <v>0.824</v>
+        <v>0.349</v>
       </c>
       <c r="D85">
-        <v>0.424</v>
+        <v>0.035</v>
       </c>
       <c r="E85">
-        <v>1.604</v>
+        <v>3.497</v>
       </c>
       <c r="F85">
-        <v>-0.569</v>
+        <v>-0.896</v>
       </c>
       <c r="G85">
-        <v>0.5696</v>
+        <v>0.3705</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Taxi / Plataforma</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>p28_importancia_siniestralidad</t>
+          <t>`p22_Entre 11 y 15 km`</t>
         </is>
       </c>
       <c r="C86">
-        <v>1.853</v>
+        <v>1.271</v>
       </c>
       <c r="D86">
-        <v>0.929</v>
+        <v>0.173</v>
       </c>
       <c r="E86">
-        <v>3.696</v>
+        <v>9.345000000000001</v>
       </c>
       <c r="F86">
-        <v>1.752</v>
+        <v>0.236</v>
       </c>
       <c r="G86">
-        <v>0.0799</v>
+        <v>0.8138</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Taxi / Plataforma</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>p28_importancia_tiempo</t>
+          <t>`p22_Entre 16 y 20 km`</t>
         </is>
       </c>
       <c r="C87">
-        <v>0.992</v>
+        <v>9.483000000000001</v>
       </c>
       <c r="D87">
-        <v>0.406</v>
+        <v>0.582</v>
       </c>
       <c r="E87">
-        <v>2.422</v>
+        <v>154.492</v>
       </c>
       <c r="F87">
-        <v>-0.017</v>
+        <v>1.58</v>
       </c>
       <c r="G87">
-        <v>0.9861</v>
+        <v>0.1141</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Taxi / Plataforma</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>p32_contaminacion_likert</t>
+          <t>`p22_Entre 6 y 10 km`</t>
         </is>
       </c>
       <c r="C88">
-        <v>0.88</v>
+        <v>3.083</v>
       </c>
       <c r="D88">
-        <v>0.374</v>
+        <v>0.4</v>
       </c>
       <c r="E88">
-        <v>2.069</v>
+        <v>23.751</v>
       </c>
       <c r="F88">
-        <v>-0.294</v>
+        <v>1.081</v>
       </c>
       <c r="G88">
-        <v>0.7687</v>
+        <v>0.2798</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Taxi / Plataforma</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>p36_influencia_amigos</t>
+          <t>`p22_Menos de 5 km`</t>
         </is>
       </c>
       <c r="C89">
-        <v>1.024</v>
+        <v>13.072</v>
       </c>
       <c r="D89">
-        <v>0.49</v>
+        <v>1.214</v>
       </c>
       <c r="E89">
-        <v>2.137</v>
+        <v>140.733</v>
       </c>
       <c r="F89">
-        <v>0.063</v>
+        <v>2.12</v>
       </c>
       <c r="G89">
-        <v>0.9500999999999999</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Taxi / Plataforma</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>p37_influencia_familia</t>
+          <t>`p5_agregado_Primaria o menos`</t>
         </is>
       </c>
       <c r="C90">
-        <v>1.325</v>
+        <v>2.035</v>
       </c>
       <c r="D90">
-        <v>0.759</v>
+        <v>0.056</v>
       </c>
       <c r="E90">
-        <v>2.313</v>
+        <v>73.544</v>
       </c>
       <c r="F90">
-        <v>0.99</v>
+        <v>0.388</v>
       </c>
       <c r="G90">
-        <v>0.322</v>
+        <v>0.6979</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Taxi / Plataforma</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>p40_Hombre</t>
+          <t>`p5_agregado_Técnico / Tecnológico`</t>
         </is>
       </c>
       <c r="C91">
-        <v>0.635</v>
+        <v>3.28</v>
       </c>
       <c r="D91">
-        <v>0.166</v>
+        <v>0.463</v>
       </c>
       <c r="E91">
-        <v>2.425</v>
+        <v>23.219</v>
       </c>
       <c r="F91">
-        <v>-0.664</v>
+        <v>1.19</v>
       </c>
       <c r="G91">
-        <v>0.5067</v>
+        <v>0.2342</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Taxi / Plataforma</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>p40_Mujer</t>
+          <t>`p7_agregado_Desocupado o inactivo`</t>
         </is>
       </c>
       <c r="C92">
-        <v>1.033</v>
+        <v>1.961</v>
       </c>
       <c r="D92">
-        <v>0.302</v>
+        <v>0.141</v>
       </c>
       <c r="E92">
-        <v>3.533</v>
+        <v>27.215</v>
       </c>
       <c r="F92">
-        <v>0.051</v>
+        <v>0.502</v>
       </c>
       <c r="G92">
-        <v>0.9593</v>
+        <v>0.6156</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Taxi / Plataforma</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>p5_agregado_Secundaria</t>
+          <t>`p7_agregado_Trabajo doméstico no remunerado`</t>
         </is>
       </c>
       <c r="C93">
-        <v>2.201</v>
+        <v>5.38</v>
       </c>
       <c r="D93">
-        <v>0.641</v>
+        <v>0.426</v>
       </c>
       <c r="E93">
-        <v>7.559</v>
+        <v>67.95699999999999</v>
       </c>
       <c r="F93">
-        <v>1.253</v>
+        <v>1.3</v>
       </c>
       <c r="G93">
-        <v>0.2102</v>
+        <v>0.1935</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Taxi / Plataforma</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>p5_agregado_Superior</t>
+          <t>p28_importancia_comodidad</t>
         </is>
       </c>
       <c r="C94">
-        <v>0.136</v>
+        <v>0.588</v>
       </c>
       <c r="D94">
-        <v>0.022</v>
+        <v>0.201</v>
       </c>
       <c r="E94">
-        <v>0.846</v>
+        <v>1.724</v>
       </c>
       <c r="F94">
-        <v>-2.139</v>
+        <v>-0.967</v>
       </c>
       <c r="G94">
-        <v>0.0324</v>
+        <v>0.3334</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Taxi / Plataforma</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>p7_agregado_Estudiante</t>
+          <t>p28_importancia_costo_compra</t>
         </is>
       </c>
       <c r="C95">
-        <v>18.421</v>
+        <v>1.582</v>
       </c>
       <c r="D95">
-        <v>0.731</v>
+        <v>0.865</v>
       </c>
       <c r="E95">
-        <v>464.431</v>
+        <v>2.894</v>
       </c>
       <c r="F95">
-        <v>1.769</v>
+        <v>1.488</v>
       </c>
       <c r="G95">
-        <v>0.07679999999999999</v>
+        <v>0.1368</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Taxi / Plataforma</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>p7_agregado_Otro</t>
+          <t>p28_importancia_costo_uso</t>
         </is>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.319</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.678</v>
       </c>
       <c r="F96">
-        <v>-88634.52099999999</v>
+        <v>-2.967</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Taxi / Plataforma</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>p9_estrato3_Alto</t>
+          <t>p28_importancia_emisiones</t>
         </is>
       </c>
       <c r="C97">
-        <v>0.574</v>
+        <v>0.896</v>
       </c>
       <c r="D97">
-        <v>0.17</v>
+        <v>0.479</v>
       </c>
       <c r="E97">
-        <v>1.937</v>
+        <v>1.677</v>
       </c>
       <c r="F97">
-        <v>-0.895</v>
+        <v>-0.342</v>
       </c>
       <c r="G97">
-        <v>0.371</v>
+        <v>0.7324000000000001</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Taxi / Plataforma</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>p9_estrato3_Bajo</t>
+          <t>p28_importancia_siniestralidad</t>
         </is>
       </c>
       <c r="C98">
-        <v>1.217</v>
+        <v>1.597</v>
       </c>
       <c r="D98">
-        <v>0.295</v>
+        <v>0.828</v>
       </c>
       <c r="E98">
-        <v>5.012</v>
+        <v>3.083</v>
       </c>
       <c r="F98">
-        <v>0.272</v>
+        <v>1.396</v>
       </c>
       <c r="G98">
-        <v>0.7859</v>
+        <v>0.1626</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Taxi / Plataforma</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>p9_estrato3_Medio</t>
+          <t>p28_importancia_tiempo</t>
         </is>
       </c>
       <c r="C99">
-        <v>0.9389999999999999</v>
+        <v>1.878</v>
       </c>
       <c r="D99">
-        <v>0.243</v>
+        <v>0.798</v>
       </c>
       <c r="E99">
-        <v>3.63</v>
+        <v>4.416</v>
       </c>
       <c r="F99">
-        <v>-0.091</v>
+        <v>1.444</v>
       </c>
       <c r="G99">
-        <v>0.9273</v>
+        <v>0.1488</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Taxi / Plataforma</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>tiempo_total</t>
+          <t>p32_contaminacion_likert</t>
         </is>
       </c>
       <c r="C100">
-        <v>0.984</v>
+        <v>0.473</v>
       </c>
       <c r="D100">
-        <v>0.93</v>
+        <v>0.21</v>
       </c>
       <c r="E100">
-        <v>1.042</v>
+        <v>1.066</v>
       </c>
       <c r="F100">
-        <v>-0.542</v>
+        <v>-1.805</v>
       </c>
       <c r="G100">
-        <v>0.5877</v>
+        <v>0.07099999999999999</v>
       </c>
     </row>
     <row r="101">
@@ -3076,23 +3076,23 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>(Intercept)</t>
+          <t>p36_influencia_amigos</t>
         </is>
       </c>
       <c r="C101">
-        <v>1.242</v>
+        <v>1.267</v>
       </c>
       <c r="D101">
-        <v>0.162</v>
+        <v>0.633</v>
       </c>
       <c r="E101">
-        <v>9.542999999999999</v>
+        <v>2.539</v>
       </c>
       <c r="F101">
-        <v>0.208</v>
+        <v>0.668</v>
       </c>
       <c r="G101">
-        <v>0.8352000000000001</v>
+        <v>0.5041</v>
       </c>
     </row>
     <row r="102">
@@ -3103,23 +3103,23 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>`edad_r2_18 - 34 años`</t>
+          <t>p37_influencia_familia</t>
         </is>
       </c>
       <c r="C102">
-        <v>1.213</v>
+        <v>1.087</v>
       </c>
       <c r="D102">
-        <v>0.35</v>
+        <v>0.65</v>
       </c>
       <c r="E102">
-        <v>4.202</v>
+        <v>1.818</v>
       </c>
       <c r="F102">
-        <v>0.305</v>
+        <v>0.317</v>
       </c>
       <c r="G102">
-        <v>0.7606000000000001</v>
+        <v>0.7513</v>
       </c>
     </row>
     <row r="103">
@@ -3130,23 +3130,23 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>`edad_r2_35 - 54 años`</t>
+          <t>p40_Mujer</t>
         </is>
       </c>
       <c r="C103">
-        <v>1.724</v>
+        <v>0.614</v>
       </c>
       <c r="D103">
-        <v>0.463</v>
+        <v>0.152</v>
       </c>
       <c r="E103">
-        <v>6.419</v>
+        <v>2.484</v>
       </c>
       <c r="F103">
-        <v>0.8120000000000001</v>
+        <v>-0.6840000000000001</v>
       </c>
       <c r="G103">
-        <v>0.4168</v>
+        <v>0.4939</v>
       </c>
     </row>
     <row r="104">
@@ -3157,23 +3157,23 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>`edad_r2_55 - 80 años`</t>
+          <t>p5_agregado_Secundaria</t>
         </is>
       </c>
       <c r="C104">
-        <v>0.594</v>
+        <v>1.827</v>
       </c>
       <c r="D104">
-        <v>0.125</v>
+        <v>0.262</v>
       </c>
       <c r="E104">
-        <v>2.817</v>
+        <v>12.729</v>
       </c>
       <c r="F104">
-        <v>-0.656</v>
+        <v>0.608</v>
       </c>
       <c r="G104">
-        <v>0.5117</v>
+        <v>0.5429</v>
       </c>
     </row>
     <row r="105">
@@ -3184,23 +3184,23 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>`p22_Entre 11 y 15 km`</t>
+          <t>p7_agregado_Estudiante</t>
         </is>
       </c>
       <c r="C105">
-        <v>0.384</v>
+        <v>5.045</v>
       </c>
       <c r="D105">
-        <v>0.099</v>
+        <v>0.094</v>
       </c>
       <c r="E105">
-        <v>1.486</v>
+        <v>270.337</v>
       </c>
       <c r="F105">
-        <v>-1.386</v>
+        <v>0.797</v>
       </c>
       <c r="G105">
-        <v>0.1656</v>
+        <v>0.4256</v>
       </c>
     </row>
     <row r="106">
@@ -3211,23 +3211,23 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>`p22_Entre 16 y 20 km`</t>
+          <t>p7_agregado_Otro</t>
         </is>
       </c>
       <c r="C106">
-        <v>2.9</v>
+        <v>0.025</v>
       </c>
       <c r="D106">
-        <v>0.352</v>
+        <v>0</v>
       </c>
       <c r="E106">
-        <v>23.906</v>
+        <v>2.832</v>
       </c>
       <c r="F106">
-        <v>0.989</v>
+        <v>-1.527</v>
       </c>
       <c r="G106">
-        <v>0.3226</v>
+        <v>0.1268</v>
       </c>
     </row>
     <row r="107">
@@ -3238,23 +3238,23 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>`p22_Entre 6 y 10 km`</t>
+          <t>p9_estrato3_Bajo</t>
         </is>
       </c>
       <c r="C107">
-        <v>0.9340000000000001</v>
+        <v>26.797</v>
       </c>
       <c r="D107">
-        <v>0.267</v>
+        <v>3.428</v>
       </c>
       <c r="E107">
-        <v>3.267</v>
+        <v>209.471</v>
       </c>
       <c r="F107">
-        <v>-0.107</v>
+        <v>3.134</v>
       </c>
       <c r="G107">
-        <v>0.9147999999999999</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="108">
@@ -3265,23 +3265,23 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>`p22_Menos de 5 km`</t>
+          <t>p9_estrato3_Medio</t>
         </is>
       </c>
       <c r="C108">
-        <v>3.955</v>
+        <v>19.799</v>
       </c>
       <c r="D108">
-        <v>0.838</v>
+        <v>3.378</v>
       </c>
       <c r="E108">
-        <v>18.67</v>
+        <v>116.055</v>
       </c>
       <c r="F108">
-        <v>1.737</v>
+        <v>3.309</v>
       </c>
       <c r="G108">
-        <v>0.0824</v>
+        <v>0.0009</v>
       </c>
     </row>
     <row r="109">
@@ -3292,670 +3292,22 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>`p22_Más de 20 km`</t>
+          <t>tiempo_total</t>
         </is>
       </c>
       <c r="C109">
-        <v>0.302</v>
+        <v>1.103</v>
       </c>
       <c r="D109">
-        <v>0.068</v>
+        <v>1.048</v>
       </c>
       <c r="E109">
-        <v>1.338</v>
+        <v>1.161</v>
       </c>
       <c r="F109">
-        <v>-1.577</v>
+        <v>3.777</v>
       </c>
       <c r="G109">
-        <v>0.1149</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Transporte público</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>`p5_agregado_Primaria o menos`</t>
-        </is>
-      </c>
-      <c r="C110">
-        <v>1.155</v>
-      </c>
-      <c r="D110">
-        <v>0.096</v>
-      </c>
-      <c r="E110">
-        <v>13.874</v>
-      </c>
-      <c r="F110">
-        <v>0.114</v>
-      </c>
-      <c r="G110">
-        <v>0.9096</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Transporte público</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>`p5_agregado_Técnico / Tecnológico`</t>
-        </is>
-      </c>
-      <c r="C111">
-        <v>1.838</v>
-      </c>
-      <c r="D111">
-        <v>0.409</v>
-      </c>
-      <c r="E111">
-        <v>8.27</v>
-      </c>
-      <c r="F111">
-        <v>0.794</v>
-      </c>
-      <c r="G111">
-        <v>0.4274</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Transporte público</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>`p7_agregado_Desocupado o inactivo`</t>
-        </is>
-      </c>
-      <c r="C112">
-        <v>1.93</v>
-      </c>
-      <c r="D112">
-        <v>0.173</v>
-      </c>
-      <c r="E112">
-        <v>21.522</v>
-      </c>
-      <c r="F112">
-        <v>0.535</v>
-      </c>
-      <c r="G112">
-        <v>0.5929</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Transporte público</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>`p7_agregado_Ocupado/a`</t>
-        </is>
-      </c>
-      <c r="C113">
-        <v>0.984</v>
-      </c>
-      <c r="D113">
-        <v>0.226</v>
-      </c>
-      <c r="E113">
-        <v>4.285</v>
-      </c>
-      <c r="F113">
-        <v>-0.022</v>
-      </c>
-      <c r="G113">
-        <v>0.9824000000000001</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Transporte público</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>`p7_agregado_Trabajo doméstico no remunerado`</t>
-        </is>
-      </c>
-      <c r="C114">
-        <v>5.342</v>
-      </c>
-      <c r="D114">
-        <v>0.519</v>
-      </c>
-      <c r="E114">
-        <v>55.026</v>
-      </c>
-      <c r="F114">
-        <v>1.408</v>
-      </c>
-      <c r="G114">
-        <v>0.1591</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Transporte público</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>p28_importancia_comodidad</t>
-        </is>
-      </c>
-      <c r="C115">
-        <v>0.592</v>
-      </c>
-      <c r="D115">
-        <v>0.202</v>
-      </c>
-      <c r="E115">
-        <v>1.733</v>
-      </c>
-      <c r="F115">
-        <v>-0.957</v>
-      </c>
-      <c r="G115">
-        <v>0.3388</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Transporte público</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>p28_importancia_costo_compra</t>
-        </is>
-      </c>
-      <c r="C116">
-        <v>1.58</v>
-      </c>
-      <c r="D116">
-        <v>0.864</v>
-      </c>
-      <c r="E116">
-        <v>2.891</v>
-      </c>
-      <c r="F116">
-        <v>1.486</v>
-      </c>
-      <c r="G116">
-        <v>0.1373</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Transporte público</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>p28_importancia_costo_uso</t>
-        </is>
-      </c>
-      <c r="C117">
-        <v>0.319</v>
-      </c>
-      <c r="D117">
-        <v>0.15</v>
-      </c>
-      <c r="E117">
-        <v>0.679</v>
-      </c>
-      <c r="F117">
-        <v>-2.967</v>
-      </c>
-      <c r="G117">
-        <v>0.003</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Transporte público</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>p28_importancia_emisiones</t>
-        </is>
-      </c>
-      <c r="C118">
-        <v>0.898</v>
-      </c>
-      <c r="D118">
-        <v>0.48</v>
-      </c>
-      <c r="E118">
-        <v>1.68</v>
-      </c>
-      <c r="F118">
-        <v>-0.336</v>
-      </c>
-      <c r="G118">
-        <v>0.7368</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Transporte público</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>p28_importancia_siniestralidad</t>
-        </is>
-      </c>
-      <c r="C119">
-        <v>1.592</v>
-      </c>
-      <c r="D119">
-        <v>0.826</v>
-      </c>
-      <c r="E119">
-        <v>3.069</v>
-      </c>
-      <c r="F119">
-        <v>1.388</v>
-      </c>
-      <c r="G119">
-        <v>0.165</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Transporte público</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>p28_importancia_tiempo</t>
-        </is>
-      </c>
-      <c r="C120">
-        <v>1.873</v>
-      </c>
-      <c r="D120">
-        <v>0.797</v>
-      </c>
-      <c r="E120">
-        <v>4.402</v>
-      </c>
-      <c r="F120">
-        <v>1.439</v>
-      </c>
-      <c r="G120">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Transporte público</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>p32_contaminacion_likert</t>
-        </is>
-      </c>
-      <c r="C121">
-        <v>0.473</v>
-      </c>
-      <c r="D121">
-        <v>0.21</v>
-      </c>
-      <c r="E121">
-        <v>1.066</v>
-      </c>
-      <c r="F121">
-        <v>-1.806</v>
-      </c>
-      <c r="G121">
-        <v>0.0708</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Transporte público</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>p36_influencia_amigos</t>
-        </is>
-      </c>
-      <c r="C122">
-        <v>1.27</v>
-      </c>
-      <c r="D122">
-        <v>0.634</v>
-      </c>
-      <c r="E122">
-        <v>2.543</v>
-      </c>
-      <c r="F122">
-        <v>0.673</v>
-      </c>
-      <c r="G122">
-        <v>0.5007</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Transporte público</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>p37_influencia_familia</t>
-        </is>
-      </c>
-      <c r="C123">
-        <v>1.086</v>
-      </c>
-      <c r="D123">
-        <v>0.649</v>
-      </c>
-      <c r="E123">
-        <v>1.816</v>
-      </c>
-      <c r="F123">
-        <v>0.313</v>
-      </c>
-      <c r="G123">
-        <v>0.7543</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Transporte público</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>p40_Hombre</t>
-        </is>
-      </c>
-      <c r="C124">
-        <v>1.421</v>
-      </c>
-      <c r="D124">
-        <v>0.403</v>
-      </c>
-      <c r="E124">
-        <v>5.013</v>
-      </c>
-      <c r="F124">
-        <v>0.546</v>
-      </c>
-      <c r="G124">
-        <v>0.585</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Transporte público</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>p40_Mujer</t>
-        </is>
-      </c>
-      <c r="C125">
-        <v>0.874</v>
-      </c>
-      <c r="D125">
-        <v>0.26</v>
-      </c>
-      <c r="E125">
-        <v>2.932</v>
-      </c>
-      <c r="F125">
-        <v>-0.218</v>
-      </c>
-      <c r="G125">
-        <v>0.8270999999999999</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Transporte público</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>p5_agregado_Secundaria</t>
-        </is>
-      </c>
-      <c r="C126">
-        <v>1.031</v>
-      </c>
-      <c r="D126">
-        <v>0.3</v>
-      </c>
-      <c r="E126">
-        <v>3.548</v>
-      </c>
-      <c r="F126">
-        <v>0.049</v>
-      </c>
-      <c r="G126">
-        <v>0.961</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Transporte público</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>p5_agregado_Superior</t>
-        </is>
-      </c>
-      <c r="C127">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="D127">
-        <v>0.115</v>
-      </c>
-      <c r="E127">
-        <v>2.789</v>
-      </c>
-      <c r="F127">
-        <v>-0.698</v>
-      </c>
-      <c r="G127">
-        <v>0.4852</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Transporte público</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>p7_agregado_Estudiante</t>
-        </is>
-      </c>
-      <c r="C128">
-        <v>4.81</v>
-      </c>
-      <c r="D128">
-        <v>0.159</v>
-      </c>
-      <c r="E128">
-        <v>145.269</v>
-      </c>
-      <c r="F128">
-        <v>0.903</v>
-      </c>
-      <c r="G128">
-        <v>0.3663</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Transporte público</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>p7_agregado_Otro</t>
-        </is>
-      </c>
-      <c r="C129">
-        <v>0.025</v>
-      </c>
-      <c r="D129">
-        <v>0</v>
-      </c>
-      <c r="E129">
-        <v>1.298</v>
-      </c>
-      <c r="F129">
-        <v>-1.83</v>
-      </c>
-      <c r="G129">
-        <v>0.0672</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Transporte público</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>p9_estrato3_Alto</t>
-        </is>
-      </c>
-      <c r="C130">
-        <v>0.132</v>
-      </c>
-      <c r="D130">
-        <v>0.039</v>
-      </c>
-      <c r="E130">
-        <v>0.456</v>
-      </c>
-      <c r="F130">
-        <v>-3.208</v>
-      </c>
-      <c r="G130">
-        <v>0.0013</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Transporte público</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>p9_estrato3_Bajo</t>
-        </is>
-      </c>
-      <c r="C131">
-        <v>3.544</v>
-      </c>
-      <c r="D131">
-        <v>0.9340000000000001</v>
-      </c>
-      <c r="E131">
-        <v>13.445</v>
-      </c>
-      <c r="F131">
-        <v>1.86</v>
-      </c>
-      <c r="G131">
-        <v>0.0629</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Transporte público</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>p9_estrato3_Medio</t>
-        </is>
-      </c>
-      <c r="C132">
-        <v>2.644</v>
-      </c>
-      <c r="D132">
-        <v>0.74</v>
-      </c>
-      <c r="E132">
-        <v>9.449</v>
-      </c>
-      <c r="F132">
-        <v>1.497</v>
-      </c>
-      <c r="G132">
-        <v>0.1345</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Transporte público</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>tiempo_total</t>
-        </is>
-      </c>
-      <c r="C133">
-        <v>1.104</v>
-      </c>
-      <c r="D133">
-        <v>1.049</v>
-      </c>
-      <c r="E133">
-        <v>1.162</v>
-      </c>
-      <c r="F133">
-        <v>3.79</v>
-      </c>
-      <c r="G133">
         <v>0.0002</v>
       </c>
     </row>
@@ -3966,7 +3318,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4035,105 +3387,75 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>`p22_Más de 20 km`</t>
+          <t>`p22_Entre 6 y 10 km`</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>`p22_Entre 6 y 10 km`</t>
+          <t>`p22_Entre 11 y 15 km`</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>`p22_Entre 11 y 15 km`</t>
+          <t>`p22_Entre 16 y 20 km`</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>`p22_Entre 16 y 20 km`</t>
+          <t>`p7_agregado_Trabajo doméstico no remunerado`</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>`p7_agregado_Trabajo doméstico no remunerado`</t>
+          <t>p7_agregado_Otro</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>p7_agregado_Otro</t>
+          <t>p7_agregado_Estudiante</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>`p7_agregado_Ocupado/a`</t>
+          <t>`p7_agregado_Desocupado o inactivo`</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>p7_agregado_Estudiante</t>
+          <t>p40_Mujer</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>`p7_agregado_Desocupado o inactivo`</t>
+          <t>`edad_r2_18 - 34 años`</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>p40_Mujer</t>
+          <t>`edad_r2_55 - 80 años`</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>p40_Hombre</t>
+          <t>`p5_agregado_Primaria o menos`</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>`edad_r2_18 - 34 años`</t>
+          <t>p5_agregado_Secundaria</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>`edad_r2_35 - 54 años`</t>
+          <t>`p5_agregado_Técnico / Tecnológico`</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>`edad_r2_55 - 80 años`</t>
+          <t>p9_estrato3_Bajo</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>`p5_agregado_Primaria o menos`</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>p5_agregado_Secundaria</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>p5_agregado_Superior</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>`p5_agregado_Técnico / Tecnológico`</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>p9_estrato3_Alto</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>p9_estrato3_Bajo</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>p9_estrato3_Medio</t>
         </is>
@@ -4141,406 +3463,334 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.243</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>2.178</v>
+        <v>2.176</v>
       </c>
       <c r="C2">
-        <v>0.419</v>
+        <v>0.418</v>
       </c>
       <c r="D2">
-        <v>0.316</v>
+        <v>0.313</v>
       </c>
       <c r="E2">
-        <v>1.038</v>
+        <v>1.041</v>
       </c>
       <c r="F2">
         <v>0.918</v>
       </c>
       <c r="G2">
-        <v>1.966</v>
+        <v>1.978</v>
       </c>
       <c r="H2">
         <v>0.121</v>
       </c>
       <c r="I2">
-        <v>1.068</v>
+        <v>1.064</v>
       </c>
       <c r="J2">
-        <v>1.514</v>
+        <v>1.516</v>
       </c>
       <c r="K2">
         <v>1.098</v>
       </c>
       <c r="L2">
-        <v>139.807</v>
+        <v>67640.689</v>
       </c>
       <c r="M2">
-        <v>0.002</v>
+        <v>2719.667</v>
       </c>
       <c r="N2">
-        <v>5.629</v>
+        <v>0.095</v>
       </c>
       <c r="O2">
-        <v>0.001</v>
+        <v>78082.60799999999</v>
       </c>
       <c r="P2">
-        <v>163.504</v>
+        <v>0.597</v>
       </c>
       <c r="Q2">
-        <v>4.774</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>45.687</v>
       </c>
       <c r="S2">
-        <v>7.888</v>
+        <v>0.13</v>
       </c>
       <c r="T2">
-        <v>351.401</v>
+        <v>0.323</v>
       </c>
       <c r="U2">
-        <v>1.021</v>
+        <v>0.162</v>
       </c>
       <c r="V2">
-        <v>0.28</v>
+        <v>0.788</v>
       </c>
       <c r="W2">
-        <v>0.867</v>
+        <v>25788.531</v>
       </c>
       <c r="X2">
-        <v>0.202</v>
+        <v>13245.682</v>
       </c>
       <c r="Y2">
-        <v>1.244</v>
+        <v>2511.958</v>
       </c>
       <c r="Z2">
-        <v>0.966</v>
+        <v>1.879</v>
       </c>
       <c r="AA2">
-        <v>21.818</v>
-      </c>
-      <c r="AB2">
-        <v>11.153</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>2.087</v>
-      </c>
-      <c r="AE2">
-        <v>0.537</v>
-      </c>
-      <c r="AF2">
-        <v>1.006</v>
-      </c>
-      <c r="AG2">
-        <v>0.45</v>
+        <v>0.832</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1.119</v>
+        <v>4.269</v>
       </c>
       <c r="B3">
-        <v>1.353</v>
+        <v>1.354</v>
       </c>
       <c r="C3">
-        <v>0.49</v>
+        <v>0.489</v>
       </c>
       <c r="D3">
-        <v>0.727</v>
+        <v>0.722</v>
       </c>
       <c r="E3">
-        <v>1.455</v>
+        <v>1.457</v>
       </c>
       <c r="F3">
-        <v>0.635</v>
+        <v>0.634</v>
       </c>
       <c r="G3">
-        <v>2.198</v>
+        <v>2.207</v>
       </c>
       <c r="H3">
         <v>0.536</v>
       </c>
       <c r="I3">
-        <v>0.988</v>
+        <v>0.986</v>
       </c>
       <c r="J3">
-        <v>1.28</v>
+        <v>1.282</v>
       </c>
       <c r="K3">
-        <v>0.988</v>
+        <v>0.987</v>
       </c>
       <c r="L3">
-        <v>1.277</v>
+        <v>4.453</v>
       </c>
       <c r="M3">
-        <v>0.285</v>
+        <v>2.484</v>
       </c>
       <c r="N3">
-        <v>0.713</v>
+        <v>2.636</v>
       </c>
       <c r="O3">
-        <v>0.753</v>
+        <v>19.796</v>
       </c>
       <c r="P3">
-        <v>5.712</v>
+        <v>2.293</v>
       </c>
       <c r="Q3">
-        <v>56.081</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.286</v>
       </c>
       <c r="S3">
-        <v>24.228</v>
+        <v>0.447</v>
       </c>
       <c r="T3">
-        <v>6.74</v>
+        <v>0.253</v>
       </c>
       <c r="U3">
-        <v>10.889</v>
+        <v>0.387</v>
       </c>
       <c r="V3">
-        <v>0.533</v>
+        <v>0.148</v>
       </c>
       <c r="W3">
-        <v>2.101</v>
+        <v>3.049</v>
       </c>
       <c r="X3">
-        <v>1.052</v>
+        <v>5.058</v>
       </c>
       <c r="Y3">
-        <v>2.698</v>
+        <v>8.278</v>
       </c>
       <c r="Z3">
-        <v>0.394</v>
+        <v>8.148</v>
       </c>
       <c r="AA3">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AB3">
-        <v>1.544</v>
-      </c>
-      <c r="AC3">
-        <v>0.307</v>
-      </c>
-      <c r="AD3">
-        <v>2.509</v>
-      </c>
-      <c r="AE3">
-        <v>0.301</v>
-      </c>
-      <c r="AF3">
-        <v>2.456</v>
-      </c>
-      <c r="AG3">
-        <v>1.511</v>
+        <v>4.969</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.656</v>
+        <v>0.14</v>
       </c>
       <c r="B4">
-        <v>1.257</v>
+        <v>1.258</v>
       </c>
       <c r="C4">
-        <v>0.616</v>
+        <v>0.614</v>
       </c>
       <c r="D4">
-        <v>0.832</v>
+        <v>0.827</v>
       </c>
       <c r="E4">
-        <v>0.992</v>
+        <v>0.994</v>
       </c>
       <c r="F4">
-        <v>0.824</v>
+        <v>0.823</v>
       </c>
       <c r="G4">
-        <v>1.853</v>
+        <v>1.861</v>
       </c>
       <c r="H4">
-        <v>0.88</v>
+        <v>0.879</v>
       </c>
       <c r="I4">
-        <v>1.024</v>
+        <v>1.022</v>
       </c>
       <c r="J4">
-        <v>1.325</v>
+        <v>1.327</v>
       </c>
       <c r="K4">
         <v>0.984</v>
       </c>
       <c r="L4">
-        <v>1.601</v>
+        <v>3.561</v>
       </c>
       <c r="M4">
-        <v>0.448</v>
+        <v>1.166</v>
       </c>
       <c r="N4">
-        <v>0.526</v>
+        <v>0.868</v>
       </c>
       <c r="O4">
-        <v>0.389</v>
+        <v>9.904</v>
       </c>
       <c r="P4">
-        <v>4.47</v>
+        <v>4.749</v>
       </c>
       <c r="Q4">
-        <v>35.654</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>2.564</v>
       </c>
       <c r="S4">
-        <v>7.427</v>
+        <v>2.79</v>
       </c>
       <c r="T4">
-        <v>18.421</v>
+        <v>1.622</v>
       </c>
       <c r="U4">
-        <v>20.787</v>
+        <v>0.415</v>
       </c>
       <c r="V4">
-        <v>1.033</v>
+        <v>0.835</v>
       </c>
       <c r="W4">
-        <v>0.635</v>
+        <v>7.597</v>
       </c>
       <c r="X4">
-        <v>0.518</v>
+        <v>16.266</v>
       </c>
       <c r="Y4">
-        <v>1.239</v>
+        <v>15.699</v>
       </c>
       <c r="Z4">
-        <v>1.022</v>
+        <v>2.125</v>
       </c>
       <c r="AA4">
-        <v>1.036</v>
-      </c>
-      <c r="AB4">
-        <v>2.201</v>
-      </c>
-      <c r="AC4">
-        <v>0.136</v>
-      </c>
-      <c r="AD4">
-        <v>2.11</v>
-      </c>
-      <c r="AE4">
-        <v>0.574</v>
-      </c>
-      <c r="AF4">
-        <v>1.217</v>
-      </c>
-      <c r="AG4">
-        <v>0.9389999999999999</v>
+        <v>1.623</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1.242</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="B5">
-        <v>1.58</v>
+        <v>1.582</v>
       </c>
       <c r="C5">
         <v>0.319</v>
       </c>
       <c r="D5">
-        <v>0.592</v>
+        <v>0.588</v>
       </c>
       <c r="E5">
-        <v>1.873</v>
+        <v>1.878</v>
       </c>
       <c r="F5">
-        <v>0.898</v>
+        <v>0.896</v>
       </c>
       <c r="G5">
-        <v>1.592</v>
+        <v>1.597</v>
       </c>
       <c r="H5">
         <v>0.473</v>
       </c>
       <c r="I5">
-        <v>1.27</v>
+        <v>1.267</v>
       </c>
       <c r="J5">
-        <v>1.086</v>
+        <v>1.087</v>
       </c>
       <c r="K5">
-        <v>1.104</v>
+        <v>1.103</v>
       </c>
       <c r="L5">
-        <v>3.955</v>
+        <v>13.072</v>
       </c>
       <c r="M5">
-        <v>0.302</v>
+        <v>3.083</v>
       </c>
       <c r="N5">
-        <v>0.9340000000000001</v>
+        <v>1.271</v>
       </c>
       <c r="O5">
-        <v>0.384</v>
+        <v>9.483000000000001</v>
       </c>
       <c r="P5">
-        <v>2.9</v>
+        <v>5.38</v>
       </c>
       <c r="Q5">
-        <v>5.342</v>
+        <v>0.025</v>
       </c>
       <c r="R5">
-        <v>0.025</v>
+        <v>5.045</v>
       </c>
       <c r="S5">
-        <v>0.984</v>
+        <v>1.961</v>
       </c>
       <c r="T5">
-        <v>4.81</v>
+        <v>0.614</v>
       </c>
       <c r="U5">
-        <v>1.93</v>
+        <v>0.7</v>
       </c>
       <c r="V5">
-        <v>0.874</v>
+        <v>0.349</v>
       </c>
       <c r="W5">
-        <v>1.421</v>
+        <v>2.035</v>
       </c>
       <c r="X5">
-        <v>1.213</v>
+        <v>1.827</v>
       </c>
       <c r="Y5">
-        <v>1.724</v>
+        <v>3.28</v>
       </c>
       <c r="Z5">
-        <v>0.594</v>
+        <v>26.797</v>
       </c>
       <c r="AA5">
-        <v>1.155</v>
-      </c>
-      <c r="AB5">
-        <v>1.031</v>
-      </c>
-      <c r="AC5">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="AD5">
-        <v>1.838</v>
-      </c>
-      <c r="AE5">
-        <v>0.132</v>
-      </c>
-      <c r="AF5">
-        <v>3.544</v>
-      </c>
-      <c r="AG5">
-        <v>2.644</v>
+        <v>19.799</v>
       </c>
     </row>
   </sheetData>

--- a/271025_Results_Med/MNL/mnl_med_OR.xlsx
+++ b/271025_Results_Med/MNL/mnl_med_OR.xlsx
@@ -398,7 +398,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -407,25 +407,25 @@
         </is>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.243</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>78.307</v>
       </c>
       <c r="F2">
-        <v>-5.98</v>
+        <v>-0.48</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.6313</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -434,25 +434,25 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.162</v>
+        <v>2.566</v>
       </c>
       <c r="D3">
-        <v>0.01</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="E3">
-        <v>2.602</v>
+        <v>11.781</v>
       </c>
       <c r="F3">
-        <v>-1.284</v>
+        <v>1.212</v>
       </c>
       <c r="G3">
-        <v>0.199</v>
+        <v>0.2255</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -461,25 +461,25 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.788</v>
+        <v>6.812</v>
       </c>
       <c r="D4">
-        <v>0.046</v>
+        <v>0.625</v>
       </c>
       <c r="E4">
-        <v>13.365</v>
+        <v>74.20999999999999</v>
       </c>
       <c r="F4">
-        <v>-0.165</v>
+        <v>1.575</v>
       </c>
       <c r="G4">
-        <v>0.869</v>
+        <v>0.1154</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -488,25 +488,25 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.095</v>
+        <v>0.381</v>
       </c>
       <c r="D5">
-        <v>0.095</v>
+        <v>0.053</v>
       </c>
       <c r="E5">
-        <v>0.095</v>
+        <v>2.749</v>
       </c>
       <c r="F5">
-        <v>-1297.567</v>
+        <v>-0.958</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.3383</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -515,25 +515,25 @@
         </is>
       </c>
       <c r="C6">
-        <v>78082.60799999999</v>
+        <v>0.051</v>
       </c>
       <c r="D6">
-        <v>5356.498</v>
+        <v>0.003</v>
       </c>
       <c r="E6">
-        <v>1138223.922</v>
+        <v>0.799</v>
       </c>
       <c r="F6">
-        <v>8.241</v>
+        <v>-2.12</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -542,25 +542,25 @@
         </is>
       </c>
       <c r="C7">
-        <v>2719.667</v>
+        <v>0.402</v>
       </c>
       <c r="D7">
-        <v>314.756</v>
+        <v>0.049</v>
       </c>
       <c r="E7">
-        <v>23499.461</v>
+        <v>3.278</v>
       </c>
       <c r="F7">
-        <v>7.188</v>
+        <v>-0.851</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.3947</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -569,25 +569,25 @@
         </is>
       </c>
       <c r="C8">
-        <v>67640.689</v>
+        <v>0.223</v>
       </c>
       <c r="D8">
-        <v>7068.287</v>
+        <v>0.02</v>
       </c>
       <c r="E8">
-        <v>647294.453</v>
+        <v>2.545</v>
       </c>
       <c r="F8">
-        <v>9.651999999999999</v>
+        <v>-1.207</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.2273</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -596,25 +596,25 @@
         </is>
       </c>
       <c r="C9">
-        <v>25788.531</v>
+        <v>0.331</v>
       </c>
       <c r="D9">
-        <v>1197.004</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E9">
-        <v>555594.241</v>
+        <v>12.833</v>
       </c>
       <c r="F9">
-        <v>6.485</v>
+        <v>-0.592</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.5537</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -623,25 +623,25 @@
         </is>
       </c>
       <c r="C10">
-        <v>2511.958</v>
+        <v>0.123</v>
       </c>
       <c r="D10">
-        <v>158.479</v>
+        <v>0.018</v>
       </c>
       <c r="E10">
-        <v>39815.565</v>
+        <v>0.83</v>
       </c>
       <c r="F10">
-        <v>5.553</v>
+        <v>-2.15</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0315</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -650,25 +650,25 @@
         </is>
       </c>
       <c r="C11">
-        <v>0.13</v>
+        <v>2.229</v>
       </c>
       <c r="D11">
-        <v>0.003</v>
+        <v>0.147</v>
       </c>
       <c r="E11">
-        <v>4.895</v>
+        <v>33.887</v>
       </c>
       <c r="F11">
-        <v>-1.102</v>
+        <v>0.577</v>
       </c>
       <c r="G11">
-        <v>0.2703</v>
+        <v>0.5637</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -677,25 +677,25 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.597</v>
+        <v>0.43</v>
       </c>
       <c r="D12">
-        <v>0.023</v>
+        <v>0.032</v>
       </c>
       <c r="E12">
-        <v>15.25</v>
+        <v>5.8</v>
       </c>
       <c r="F12">
-        <v>-0.312</v>
+        <v>-0.635</v>
       </c>
       <c r="G12">
-        <v>0.7552</v>
+        <v>0.5253</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -704,25 +704,25 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.313</v>
+        <v>1.38</v>
       </c>
       <c r="D13">
-        <v>0.08799999999999999</v>
+        <v>0.485</v>
       </c>
       <c r="E13">
-        <v>1.109</v>
+        <v>3.932</v>
       </c>
       <c r="F13">
-        <v>-1.799</v>
+        <v>0.603</v>
       </c>
       <c r="G13">
-        <v>0.07199999999999999</v>
+        <v>0.5463</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -731,25 +731,25 @@
         </is>
       </c>
       <c r="C14">
-        <v>2.176</v>
+        <v>0.738</v>
       </c>
       <c r="D14">
-        <v>0.784</v>
+        <v>0.419</v>
       </c>
       <c r="E14">
-        <v>6.04</v>
+        <v>1.303</v>
       </c>
       <c r="F14">
-        <v>1.492</v>
+        <v>-1.047</v>
       </c>
       <c r="G14">
-        <v>0.1357</v>
+        <v>0.2952</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -758,25 +758,25 @@
         </is>
       </c>
       <c r="C15">
-        <v>0.418</v>
+        <v>2.043</v>
       </c>
       <c r="D15">
-        <v>0.161</v>
+        <v>0.964</v>
       </c>
       <c r="E15">
-        <v>1.084</v>
+        <v>4.331</v>
       </c>
       <c r="F15">
-        <v>-1.794</v>
+        <v>1.864</v>
       </c>
       <c r="G15">
-        <v>0.0728</v>
+        <v>0.0623</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -785,25 +785,25 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.918</v>
+        <v>1.576</v>
       </c>
       <c r="D16">
-        <v>0.357</v>
+        <v>0.859</v>
       </c>
       <c r="E16">
-        <v>2.356</v>
+        <v>2.893</v>
       </c>
       <c r="F16">
-        <v>-0.178</v>
+        <v>1.469</v>
       </c>
       <c r="G16">
-        <v>0.8585</v>
+        <v>0.1419</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -812,25 +812,25 @@
         </is>
       </c>
       <c r="C17">
-        <v>1.978</v>
+        <v>0.454</v>
       </c>
       <c r="D17">
-        <v>0.761</v>
+        <v>0.238</v>
       </c>
       <c r="E17">
-        <v>5.139</v>
+        <v>0.867</v>
       </c>
       <c r="F17">
-        <v>1.4</v>
+        <v>-2.39</v>
       </c>
       <c r="G17">
-        <v>0.1616</v>
+        <v>0.0168</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -839,25 +839,25 @@
         </is>
       </c>
       <c r="C18">
-        <v>1.041</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="D18">
-        <v>0.332</v>
+        <v>0.298</v>
       </c>
       <c r="E18">
-        <v>3.264</v>
+        <v>1.582</v>
       </c>
       <c r="F18">
-        <v>0.068</v>
+        <v>-0.883</v>
       </c>
       <c r="G18">
-        <v>0.9456</v>
+        <v>0.3772</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -866,25 +866,25 @@
         </is>
       </c>
       <c r="C19">
-        <v>0.121</v>
+        <v>1.863</v>
       </c>
       <c r="D19">
-        <v>0.041</v>
+        <v>0.833</v>
       </c>
       <c r="E19">
-        <v>0.357</v>
+        <v>4.167</v>
       </c>
       <c r="F19">
-        <v>-3.827</v>
+        <v>1.515</v>
       </c>
       <c r="G19">
-        <v>0.0001</v>
+        <v>0.1299</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="C20">
-        <v>1.064</v>
+        <v>1.012</v>
       </c>
       <c r="D20">
-        <v>0.403</v>
+        <v>0.508</v>
       </c>
       <c r="E20">
-        <v>2.812</v>
+        <v>2.015</v>
       </c>
       <c r="F20">
-        <v>0.125</v>
+        <v>0.033</v>
       </c>
       <c r="G20">
-        <v>0.9004</v>
+        <v>0.9734</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="C21">
-        <v>1.516</v>
+        <v>0.782</v>
       </c>
       <c r="D21">
-        <v>0.62</v>
+        <v>0.474</v>
       </c>
       <c r="E21">
-        <v>3.706</v>
+        <v>1.291</v>
       </c>
       <c r="F21">
-        <v>0.912</v>
+        <v>-0.962</v>
       </c>
       <c r="G21">
-        <v>0.3617</v>
+        <v>0.3359</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -947,25 +947,25 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.323</v>
+        <v>3.948</v>
       </c>
       <c r="D22">
-        <v>0.048</v>
+        <v>1.009</v>
       </c>
       <c r="E22">
-        <v>2.194</v>
+        <v>15.445</v>
       </c>
       <c r="F22">
-        <v>-1.156</v>
+        <v>1.973</v>
       </c>
       <c r="G22">
-        <v>0.2477</v>
+        <v>0.0485</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="C23">
-        <v>13245.682</v>
+        <v>0.199</v>
       </c>
       <c r="D23">
-        <v>1945</v>
+        <v>0.03</v>
       </c>
       <c r="E23">
-        <v>90204.652</v>
+        <v>1.318</v>
       </c>
       <c r="F23">
-        <v>9.696999999999999</v>
+        <v>-1.673</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.09429999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1001,25 +1001,25 @@
         </is>
       </c>
       <c r="C24">
-        <v>45.687</v>
+        <v>3.525</v>
       </c>
       <c r="D24">
-        <v>0.473</v>
+        <v>0.048</v>
       </c>
       <c r="E24">
-        <v>4414.129</v>
+        <v>257.621</v>
       </c>
       <c r="F24">
-        <v>1.639</v>
+        <v>0.575</v>
       </c>
       <c r="G24">
-        <v>0.1012</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1028,16 +1028,16 @@
         </is>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1660096.709</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>156482.623</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>17611674.897</v>
       </c>
       <c r="F25">
-        <v>-357134.912</v>
+        <v>11.886</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1046,7 +1046,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1055,25 +1055,25 @@
         </is>
       </c>
       <c r="C26">
-        <v>1.879</v>
+        <v>0.122</v>
       </c>
       <c r="D26">
-        <v>0.062</v>
+        <v>0.017</v>
       </c>
       <c r="E26">
-        <v>57.043</v>
+        <v>0.865</v>
       </c>
       <c r="F26">
-        <v>0.362</v>
+        <v>-2.106</v>
       </c>
       <c r="G26">
-        <v>0.7173</v>
+        <v>0.0352</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1082,25 +1082,25 @@
         </is>
       </c>
       <c r="C27">
-        <v>0.832</v>
+        <v>0.2</v>
       </c>
       <c r="D27">
-        <v>0.035</v>
+        <v>0.037</v>
       </c>
       <c r="E27">
-        <v>19.731</v>
+        <v>1.069</v>
       </c>
       <c r="F27">
-        <v>-0.114</v>
+        <v>-1.882</v>
       </c>
       <c r="G27">
-        <v>0.9092</v>
+        <v>0.0599</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1109,25 +1109,25 @@
         </is>
       </c>
       <c r="C28">
-        <v>1.098</v>
+        <v>1.012</v>
       </c>
       <c r="D28">
-        <v>1.038</v>
+        <v>0.96</v>
       </c>
       <c r="E28">
-        <v>1.161</v>
+        <v>1.068</v>
       </c>
       <c r="F28">
-        <v>3.267</v>
+        <v>0.451</v>
       </c>
       <c r="G28">
-        <v>0.0011</v>
+        <v>0.6521</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1136,25 +1136,25 @@
         </is>
       </c>
       <c r="C29">
-        <v>4.269</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>1378.841</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.492</v>
+        <v>-10.655</v>
       </c>
       <c r="G29">
-        <v>0.6225000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1163,25 +1163,25 @@
         </is>
       </c>
       <c r="C30">
-        <v>0.387</v>
+        <v>0.418</v>
       </c>
       <c r="D30">
-        <v>0.08400000000000001</v>
+        <v>0.037</v>
       </c>
       <c r="E30">
-        <v>1.78</v>
+        <v>4.75</v>
       </c>
       <c r="F30">
-        <v>-1.219</v>
+        <v>-0.703</v>
       </c>
       <c r="G30">
-        <v>0.2228</v>
+        <v>0.4821</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1190,25 +1190,25 @@
         </is>
       </c>
       <c r="C31">
-        <v>0.148</v>
+        <v>5.3</v>
       </c>
       <c r="D31">
-        <v>0.014</v>
+        <v>0.673</v>
       </c>
       <c r="E31">
-        <v>1.612</v>
+        <v>41.766</v>
       </c>
       <c r="F31">
-        <v>-1.568</v>
+        <v>1.583</v>
       </c>
       <c r="G31">
-        <v>0.1168</v>
+        <v>0.1133</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1217,25 +1217,25 @@
         </is>
       </c>
       <c r="C32">
-        <v>2.636</v>
+        <v>0.012</v>
       </c>
       <c r="D32">
-        <v>0.365</v>
+        <v>0.012</v>
       </c>
       <c r="E32">
-        <v>19.056</v>
+        <v>0.012</v>
       </c>
       <c r="F32">
-        <v>0.96</v>
+        <v>-67350.79399999999</v>
       </c>
       <c r="G32">
-        <v>0.3369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1244,25 +1244,25 @@
         </is>
       </c>
       <c r="C33">
-        <v>19.796</v>
+        <v>8547.932000000001</v>
       </c>
       <c r="D33">
-        <v>1.256</v>
+        <v>1476.706</v>
       </c>
       <c r="E33">
-        <v>312.12</v>
+        <v>49479.813</v>
       </c>
       <c r="F33">
-        <v>2.122</v>
+        <v>10.106</v>
       </c>
       <c r="G33">
-        <v>0.0339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1271,25 +1271,25 @@
         </is>
       </c>
       <c r="C34">
-        <v>2.484</v>
+        <v>2372.125</v>
       </c>
       <c r="D34">
-        <v>0.305</v>
+        <v>429.463</v>
       </c>
       <c r="E34">
-        <v>20.258</v>
+        <v>13102.363</v>
       </c>
       <c r="F34">
-        <v>0.85</v>
+        <v>8.913</v>
       </c>
       <c r="G34">
-        <v>0.3954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1298,25 +1298,25 @@
         </is>
       </c>
       <c r="C35">
-        <v>4.453</v>
+        <v>32729.358</v>
       </c>
       <c r="D35">
-        <v>0.391</v>
+        <v>6014.07</v>
       </c>
       <c r="E35">
-        <v>50.713</v>
+        <v>178117.458</v>
       </c>
       <c r="F35">
-        <v>1.204</v>
+        <v>12.027</v>
       </c>
       <c r="G35">
-        <v>0.2288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1325,25 +1325,25 @@
         </is>
       </c>
       <c r="C36">
-        <v>3.049</v>
+        <v>64644.697</v>
       </c>
       <c r="D36">
-        <v>0.078</v>
+        <v>8486.183999999999</v>
       </c>
       <c r="E36">
-        <v>118.503</v>
+        <v>492440.026</v>
       </c>
       <c r="F36">
-        <v>0.597</v>
+        <v>10.692</v>
       </c>
       <c r="G36">
-        <v>0.5505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1352,25 +1352,25 @@
         </is>
       </c>
       <c r="C37">
-        <v>8.278</v>
+        <v>2334.045</v>
       </c>
       <c r="D37">
-        <v>1.218</v>
+        <v>238.761</v>
       </c>
       <c r="E37">
-        <v>56.249</v>
+        <v>22816.855</v>
       </c>
       <c r="F37">
-        <v>2.162</v>
+        <v>6.667</v>
       </c>
       <c r="G37">
-        <v>0.0306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1379,25 +1379,25 @@
         </is>
       </c>
       <c r="C38">
-        <v>0.447</v>
+        <v>0.291</v>
       </c>
       <c r="D38">
-        <v>0.029</v>
+        <v>0.016</v>
       </c>
       <c r="E38">
-        <v>6.816</v>
+        <v>5.401</v>
       </c>
       <c r="F38">
-        <v>-0.579</v>
+        <v>-0.829</v>
       </c>
       <c r="G38">
-        <v>0.5623</v>
+        <v>0.4073</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1406,25 +1406,25 @@
         </is>
       </c>
       <c r="C39">
-        <v>2.293</v>
+        <v>0.263</v>
       </c>
       <c r="D39">
-        <v>0.171</v>
+        <v>0.025</v>
       </c>
       <c r="E39">
-        <v>30.727</v>
+        <v>2.797</v>
       </c>
       <c r="F39">
-        <v>0.627</v>
+        <v>-1.107</v>
       </c>
       <c r="G39">
-        <v>0.5309</v>
+        <v>0.2684</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1433,25 +1433,25 @@
         </is>
       </c>
       <c r="C40">
-        <v>0.722</v>
+        <v>0.436</v>
       </c>
       <c r="D40">
-        <v>0.253</v>
+        <v>0.184</v>
       </c>
       <c r="E40">
-        <v>2.062</v>
+        <v>1.03</v>
       </c>
       <c r="F40">
-        <v>-0.608</v>
+        <v>-1.893</v>
       </c>
       <c r="G40">
-        <v>0.5433</v>
+        <v>0.0584</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1460,25 +1460,25 @@
         </is>
       </c>
       <c r="C41">
-        <v>1.354</v>
+        <v>1.607</v>
       </c>
       <c r="D41">
-        <v>0.767</v>
+        <v>0.656</v>
       </c>
       <c r="E41">
-        <v>2.39</v>
+        <v>3.939</v>
       </c>
       <c r="F41">
-        <v>1.046</v>
+        <v>1.037</v>
       </c>
       <c r="G41">
-        <v>0.2955</v>
+        <v>0.2995</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1487,25 +1487,25 @@
         </is>
       </c>
       <c r="C42">
-        <v>0.489</v>
+        <v>0.856</v>
       </c>
       <c r="D42">
-        <v>0.23</v>
+        <v>0.44</v>
       </c>
       <c r="E42">
-        <v>1.037</v>
+        <v>1.665</v>
       </c>
       <c r="F42">
-        <v>-1.865</v>
+        <v>-0.458</v>
       </c>
       <c r="G42">
-        <v>0.0622</v>
+        <v>0.6469</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1514,25 +1514,25 @@
         </is>
       </c>
       <c r="C43">
-        <v>0.634</v>
+        <v>1.443</v>
       </c>
       <c r="D43">
-        <v>0.345</v>
+        <v>0.664</v>
       </c>
       <c r="E43">
-        <v>1.164</v>
+        <v>3.135</v>
       </c>
       <c r="F43">
-        <v>-1.471</v>
+        <v>0.927</v>
       </c>
       <c r="G43">
-        <v>0.1413</v>
+        <v>0.3538</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1541,25 +1541,25 @@
         </is>
       </c>
       <c r="C44">
-        <v>2.207</v>
+        <v>0.895</v>
       </c>
       <c r="D44">
-        <v>1.154</v>
+        <v>0.415</v>
       </c>
       <c r="E44">
-        <v>4.219</v>
+        <v>1.932</v>
       </c>
       <c r="F44">
-        <v>2.395</v>
+        <v>-0.282</v>
       </c>
       <c r="G44">
-        <v>0.0166</v>
+        <v>0.7778</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1568,25 +1568,25 @@
         </is>
       </c>
       <c r="C45">
-        <v>1.457</v>
+        <v>0.714</v>
       </c>
       <c r="D45">
-        <v>0.632</v>
+        <v>0.29</v>
       </c>
       <c r="E45">
-        <v>3.361</v>
+        <v>1.762</v>
       </c>
       <c r="F45">
-        <v>0.883</v>
+        <v>-0.73</v>
       </c>
       <c r="G45">
-        <v>0.3772</v>
+        <v>0.4651</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1595,25 +1595,25 @@
         </is>
       </c>
       <c r="C46">
-        <v>0.536</v>
+        <v>0.226</v>
       </c>
       <c r="D46">
-        <v>0.24</v>
+        <v>0.101</v>
       </c>
       <c r="E46">
-        <v>1.2</v>
+        <v>0.507</v>
       </c>
       <c r="F46">
-        <v>-1.517</v>
+        <v>-3.607</v>
       </c>
       <c r="G46">
-        <v>0.1293</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1622,25 +1622,25 @@
         </is>
       </c>
       <c r="C47">
-        <v>0.986</v>
+        <v>1.081</v>
       </c>
       <c r="D47">
-        <v>0.495</v>
+        <v>0.505</v>
       </c>
       <c r="E47">
-        <v>1.964</v>
+        <v>2.317</v>
       </c>
       <c r="F47">
-        <v>-0.039</v>
+        <v>0.201</v>
       </c>
       <c r="G47">
-        <v>0.9686</v>
+        <v>0.8404</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1649,25 +1649,25 @@
         </is>
       </c>
       <c r="C48">
-        <v>1.282</v>
+        <v>1.183</v>
       </c>
       <c r="D48">
-        <v>0.776</v>
+        <v>0.537</v>
       </c>
       <c r="E48">
-        <v>2.117</v>
+        <v>2.604</v>
       </c>
       <c r="F48">
-        <v>0.97</v>
+        <v>0.416</v>
       </c>
       <c r="G48">
-        <v>0.3321</v>
+        <v>0.6771</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1676,25 +1676,25 @@
         </is>
       </c>
       <c r="C49">
-        <v>0.253</v>
+        <v>1.275</v>
       </c>
       <c r="D49">
-        <v>0.064</v>
+        <v>0.272</v>
       </c>
       <c r="E49">
-        <v>0.99</v>
+        <v>5.974</v>
       </c>
       <c r="F49">
-        <v>-1.974</v>
+        <v>0.308</v>
       </c>
       <c r="G49">
-        <v>0.0484</v>
+        <v>0.7582</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1703,25 +1703,25 @@
         </is>
       </c>
       <c r="C50">
-        <v>5.058</v>
+        <v>20085.462</v>
       </c>
       <c r="D50">
-        <v>0.765</v>
+        <v>4761.14</v>
       </c>
       <c r="E50">
-        <v>33.462</v>
+        <v>84733.027</v>
       </c>
       <c r="F50">
-        <v>1.682</v>
+        <v>13.49</v>
       </c>
       <c r="G50">
-        <v>0.0927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1730,25 +1730,25 @@
         </is>
       </c>
       <c r="C51">
-        <v>0.286</v>
+        <v>159.011</v>
       </c>
       <c r="D51">
-        <v>0.004</v>
+        <v>5.926</v>
       </c>
       <c r="E51">
-        <v>21.137</v>
+        <v>4266.707</v>
       </c>
       <c r="F51">
-        <v>-0.571</v>
+        <v>3.02</v>
       </c>
       <c r="G51">
-        <v>0.5682</v>
+        <v>0.0025</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1757,16 +1757,16 @@
         </is>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="F52">
-        <v>-347872.912</v>
+        <v>-2559154.544</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1784,25 +1784,25 @@
         </is>
       </c>
       <c r="C53">
-        <v>8.148</v>
+        <v>0.231</v>
       </c>
       <c r="D53">
-        <v>1.15</v>
+        <v>0.011</v>
       </c>
       <c r="E53">
-        <v>57.713</v>
+        <v>4.748</v>
       </c>
       <c r="F53">
-        <v>2.1</v>
+        <v>-0.95</v>
       </c>
       <c r="G53">
-        <v>0.0357</v>
+        <v>0.3422</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1811,25 +1811,25 @@
         </is>
       </c>
       <c r="C54">
-        <v>4.969</v>
+        <v>0.168</v>
       </c>
       <c r="D54">
-        <v>0.927</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E54">
-        <v>26.64</v>
+        <v>3.081</v>
       </c>
       <c r="F54">
-        <v>1.872</v>
+        <v>-1.202</v>
       </c>
       <c r="G54">
-        <v>0.0613</v>
+        <v>0.2294</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1838,19 +1838,19 @@
         </is>
       </c>
       <c r="C55">
-        <v>0.987</v>
+        <v>1.112</v>
       </c>
       <c r="D55">
-        <v>0.9360000000000001</v>
+        <v>1.071</v>
       </c>
       <c r="E55">
-        <v>1.041</v>
+        <v>1.154</v>
       </c>
       <c r="F55">
-        <v>-0.476</v>
+        <v>5.534</v>
       </c>
       <c r="G55">
-        <v>0.6341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1865,19 +1865,19 @@
         </is>
       </c>
       <c r="C56">
-        <v>0.14</v>
+        <v>0.032</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>79.724</v>
+        <v>2.618</v>
       </c>
       <c r="F56">
-        <v>-0.607</v>
+        <v>-1.532</v>
       </c>
       <c r="G56">
-        <v>0.544</v>
+        <v>0.1256</v>
       </c>
     </row>
     <row r="57">
@@ -1892,19 +1892,19 @@
         </is>
       </c>
       <c r="C57">
-        <v>0.415</v>
+        <v>1.073</v>
       </c>
       <c r="D57">
-        <v>0.074</v>
+        <v>0.332</v>
       </c>
       <c r="E57">
-        <v>2.32</v>
+        <v>3.467</v>
       </c>
       <c r="F57">
-        <v>-1.001</v>
+        <v>0.117</v>
       </c>
       <c r="G57">
-        <v>0.3168</v>
+        <v>0.9069</v>
       </c>
     </row>
     <row r="58">
@@ -1919,19 +1919,19 @@
         </is>
       </c>
       <c r="C58">
-        <v>0.835</v>
+        <v>5.634</v>
       </c>
       <c r="D58">
-        <v>0.078</v>
+        <v>1.32</v>
       </c>
       <c r="E58">
-        <v>8.914999999999999</v>
+        <v>24.051</v>
       </c>
       <c r="F58">
-        <v>-0.149</v>
+        <v>2.335</v>
       </c>
       <c r="G58">
-        <v>0.8812</v>
+        <v>0.0196</v>
       </c>
     </row>
     <row r="59">
@@ -1946,19 +1946,19 @@
         </is>
       </c>
       <c r="C59">
-        <v>0.868</v>
+        <v>0.33</v>
       </c>
       <c r="D59">
-        <v>0.1</v>
+        <v>0.048</v>
       </c>
       <c r="E59">
-        <v>7.514</v>
+        <v>2.267</v>
       </c>
       <c r="F59">
-        <v>-0.128</v>
+        <v>-1.128</v>
       </c>
       <c r="G59">
-        <v>0.8979</v>
+        <v>0.2593</v>
       </c>
     </row>
     <row r="60">
@@ -1973,19 +1973,19 @@
         </is>
       </c>
       <c r="C60">
-        <v>9.904</v>
+        <v>0.501</v>
       </c>
       <c r="D60">
-        <v>0.577</v>
+        <v>0.067</v>
       </c>
       <c r="E60">
-        <v>170.095</v>
+        <v>3.757</v>
       </c>
       <c r="F60">
-        <v>1.581</v>
+        <v>-0.672</v>
       </c>
       <c r="G60">
-        <v>0.114</v>
+        <v>0.5016</v>
       </c>
     </row>
     <row r="61">
@@ -2000,19 +2000,19 @@
         </is>
       </c>
       <c r="C61">
-        <v>1.166</v>
+        <v>0.471</v>
       </c>
       <c r="D61">
-        <v>0.124</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E61">
-        <v>10.924</v>
+        <v>3.178</v>
       </c>
       <c r="F61">
-        <v>0.134</v>
+        <v>-0.773</v>
       </c>
       <c r="G61">
-        <v>0.893</v>
+        <v>0.4395</v>
       </c>
     </row>
     <row r="62">
@@ -2027,19 +2027,19 @@
         </is>
       </c>
       <c r="C62">
-        <v>3.561</v>
+        <v>0.802</v>
       </c>
       <c r="D62">
-        <v>0.303</v>
+        <v>0.121</v>
       </c>
       <c r="E62">
-        <v>41.779</v>
+        <v>5.304</v>
       </c>
       <c r="F62">
-        <v>1.011</v>
+        <v>-0.229</v>
       </c>
       <c r="G62">
-        <v>0.3121</v>
+        <v>0.8186</v>
       </c>
     </row>
     <row r="63">
@@ -2054,19 +2054,19 @@
         </is>
       </c>
       <c r="C63">
-        <v>7.597</v>
+        <v>2.513</v>
       </c>
       <c r="D63">
-        <v>0.173</v>
+        <v>0.223</v>
       </c>
       <c r="E63">
-        <v>333.94</v>
+        <v>28.326</v>
       </c>
       <c r="F63">
-        <v>1.051</v>
+        <v>0.745</v>
       </c>
       <c r="G63">
-        <v>0.2935</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="64">
@@ -2081,19 +2081,19 @@
         </is>
       </c>
       <c r="C64">
-        <v>15.699</v>
+        <v>1.907</v>
       </c>
       <c r="D64">
-        <v>1.624</v>
+        <v>0.309</v>
       </c>
       <c r="E64">
-        <v>151.8</v>
+        <v>11.775</v>
       </c>
       <c r="F64">
-        <v>2.379</v>
+        <v>0.695</v>
       </c>
       <c r="G64">
-        <v>0.0174</v>
+        <v>0.4869</v>
       </c>
     </row>
     <row r="65">
@@ -2108,19 +2108,19 @@
         </is>
       </c>
       <c r="C65">
-        <v>2.79</v>
+        <v>6.251</v>
       </c>
       <c r="D65">
-        <v>0.199</v>
+        <v>1.303</v>
       </c>
       <c r="E65">
-        <v>39.122</v>
+        <v>29.978</v>
       </c>
       <c r="F65">
-        <v>0.761</v>
+        <v>2.291</v>
       </c>
       <c r="G65">
-        <v>0.4464</v>
+        <v>0.0219</v>
       </c>
     </row>
     <row r="66">
@@ -2135,19 +2135,19 @@
         </is>
       </c>
       <c r="C66">
-        <v>4.749</v>
+        <v>2.068</v>
       </c>
       <c r="D66">
-        <v>0.383</v>
+        <v>0.551</v>
       </c>
       <c r="E66">
-        <v>58.894</v>
+        <v>7.752</v>
       </c>
       <c r="F66">
-        <v>1.213</v>
+        <v>1.077</v>
       </c>
       <c r="G66">
-        <v>0.2252</v>
+        <v>0.2813</v>
       </c>
     </row>
     <row r="67">
@@ -2162,19 +2162,19 @@
         </is>
       </c>
       <c r="C67">
-        <v>0.827</v>
+        <v>1.147</v>
       </c>
       <c r="D67">
-        <v>0.275</v>
+        <v>0.543</v>
       </c>
       <c r="E67">
-        <v>2.489</v>
+        <v>2.425</v>
       </c>
       <c r="F67">
-        <v>-0.338</v>
+        <v>0.359</v>
       </c>
       <c r="G67">
-        <v>0.7354000000000001</v>
+        <v>0.7197</v>
       </c>
     </row>
     <row r="68">
@@ -2189,19 +2189,19 @@
         </is>
       </c>
       <c r="C68">
-        <v>1.258</v>
+        <v>0.929</v>
       </c>
       <c r="D68">
-        <v>0.677</v>
+        <v>0.611</v>
       </c>
       <c r="E68">
-        <v>2.338</v>
+        <v>1.413</v>
       </c>
       <c r="F68">
-        <v>0.727</v>
+        <v>-0.343</v>
       </c>
       <c r="G68">
-        <v>0.4671</v>
+        <v>0.7314000000000001</v>
       </c>
     </row>
     <row r="69">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C69">
-        <v>0.614</v>
+        <v>1.257</v>
       </c>
       <c r="D69">
-        <v>0.278</v>
+        <v>0.802</v>
       </c>
       <c r="E69">
-        <v>1.356</v>
+        <v>1.971</v>
       </c>
       <c r="F69">
-        <v>-1.207</v>
+        <v>0.997</v>
       </c>
       <c r="G69">
-        <v>0.2275</v>
+        <v>0.3187</v>
       </c>
     </row>
     <row r="70">
@@ -2243,19 +2243,19 @@
         </is>
       </c>
       <c r="C70">
-        <v>0.823</v>
+        <v>1.298</v>
       </c>
       <c r="D70">
-        <v>0.423</v>
+        <v>0.854</v>
       </c>
       <c r="E70">
-        <v>1.602</v>
+        <v>1.974</v>
       </c>
       <c r="F70">
-        <v>-0.573</v>
+        <v>1.22</v>
       </c>
       <c r="G70">
-        <v>0.5663</v>
+        <v>0.2224</v>
       </c>
     </row>
     <row r="71">
@@ -2270,19 +2270,19 @@
         </is>
       </c>
       <c r="C71">
-        <v>1.861</v>
+        <v>0.843</v>
       </c>
       <c r="D71">
-        <v>0.9320000000000001</v>
+        <v>0.539</v>
       </c>
       <c r="E71">
-        <v>3.716</v>
+        <v>1.32</v>
       </c>
       <c r="F71">
-        <v>1.76</v>
+        <v>-0.746</v>
       </c>
       <c r="G71">
-        <v>0.0784</v>
+        <v>0.4558</v>
       </c>
     </row>
     <row r="72">
@@ -2297,19 +2297,19 @@
         </is>
       </c>
       <c r="C72">
-        <v>0.994</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="D72">
-        <v>0.407</v>
+        <v>0.363</v>
       </c>
       <c r="E72">
-        <v>2.429</v>
+        <v>1.282</v>
       </c>
       <c r="F72">
-        <v>-0.013</v>
+        <v>-1.188</v>
       </c>
       <c r="G72">
-        <v>0.9893999999999999</v>
+        <v>0.2349</v>
       </c>
     </row>
     <row r="73">
@@ -2324,19 +2324,19 @@
         </is>
       </c>
       <c r="C73">
-        <v>0.879</v>
+        <v>1.642</v>
       </c>
       <c r="D73">
-        <v>0.374</v>
+        <v>0.979</v>
       </c>
       <c r="E73">
-        <v>2.069</v>
+        <v>2.753</v>
       </c>
       <c r="F73">
-        <v>-0.295</v>
+        <v>1.879</v>
       </c>
       <c r="G73">
-        <v>0.7681</v>
+        <v>0.0602</v>
       </c>
     </row>
     <row r="74">
@@ -2351,19 +2351,19 @@
         </is>
       </c>
       <c r="C74">
-        <v>1.022</v>
+        <v>1.036</v>
       </c>
       <c r="D74">
-        <v>0.49</v>
+        <v>0.659</v>
       </c>
       <c r="E74">
-        <v>2.134</v>
+        <v>1.628</v>
       </c>
       <c r="F74">
-        <v>0.058</v>
+        <v>0.152</v>
       </c>
       <c r="G74">
-        <v>0.9534</v>
+        <v>0.8791</v>
       </c>
     </row>
     <row r="75">
@@ -2378,19 +2378,19 @@
         </is>
       </c>
       <c r="C75">
-        <v>1.327</v>
+        <v>1.036</v>
       </c>
       <c r="D75">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
       <c r="E75">
-        <v>2.316</v>
+        <v>1.533</v>
       </c>
       <c r="F75">
-        <v>0.995</v>
+        <v>0.176</v>
       </c>
       <c r="G75">
-        <v>0.3197</v>
+        <v>0.8607</v>
       </c>
     </row>
     <row r="76">
@@ -2405,19 +2405,19 @@
         </is>
       </c>
       <c r="C76">
-        <v>1.622</v>
+        <v>6.419</v>
       </c>
       <c r="D76">
-        <v>0.358</v>
+        <v>2.196</v>
       </c>
       <c r="E76">
-        <v>7.35</v>
+        <v>18.766</v>
       </c>
       <c r="F76">
-        <v>0.627</v>
+        <v>3.397</v>
       </c>
       <c r="G76">
-        <v>0.5304</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="77">
@@ -2432,19 +2432,19 @@
         </is>
       </c>
       <c r="C77">
-        <v>16.266</v>
+        <v>3.237</v>
       </c>
       <c r="D77">
-        <v>1.779</v>
+        <v>0.498</v>
       </c>
       <c r="E77">
-        <v>148.718</v>
+        <v>21.053</v>
       </c>
       <c r="F77">
-        <v>2.47</v>
+        <v>1.23</v>
       </c>
       <c r="G77">
-        <v>0.0135</v>
+        <v>0.2188</v>
       </c>
     </row>
     <row r="78">
@@ -2459,19 +2459,19 @@
         </is>
       </c>
       <c r="C78">
-        <v>2.564</v>
+        <v>8.898999999999999</v>
       </c>
       <c r="D78">
-        <v>0.043</v>
+        <v>0.36</v>
       </c>
       <c r="E78">
-        <v>152.639</v>
+        <v>220.246</v>
       </c>
       <c r="F78">
-        <v>0.452</v>
+        <v>1.335</v>
       </c>
       <c r="G78">
-        <v>0.6516</v>
+        <v>0.1818</v>
       </c>
     </row>
     <row r="79">
@@ -2486,16 +2486,16 @@
         </is>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.039</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>0.039</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>0.039</v>
       </c>
       <c r="F79">
-        <v>-669067.7929999999</v>
+        <v>-9221695.324999999</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -2513,19 +2513,19 @@
         </is>
       </c>
       <c r="C80">
-        <v>2.125</v>
+        <v>0.26</v>
       </c>
       <c r="D80">
-        <v>0.251</v>
+        <v>0.058</v>
       </c>
       <c r="E80">
-        <v>17.989</v>
+        <v>1.165</v>
       </c>
       <c r="F80">
-        <v>0.6909999999999999</v>
+        <v>-1.76</v>
       </c>
       <c r="G80">
-        <v>0.4893</v>
+        <v>0.0784</v>
       </c>
     </row>
     <row r="81">
@@ -2540,19 +2540,19 @@
         </is>
       </c>
       <c r="C81">
-        <v>1.623</v>
+        <v>0.326</v>
       </c>
       <c r="D81">
-        <v>0.252</v>
+        <v>0.079</v>
       </c>
       <c r="E81">
-        <v>10.456</v>
+        <v>1.35</v>
       </c>
       <c r="F81">
-        <v>0.509</v>
+        <v>-1.547</v>
       </c>
       <c r="G81">
-        <v>0.6104000000000001</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="82">
@@ -2567,19 +2567,19 @@
         </is>
       </c>
       <c r="C82">
-        <v>0.984</v>
+        <v>0.997</v>
       </c>
       <c r="D82">
-        <v>0.929</v>
+        <v>0.958</v>
       </c>
       <c r="E82">
-        <v>1.041</v>
+        <v>1.037</v>
       </c>
       <c r="F82">
-        <v>-0.5679999999999999</v>
+        <v>-0.172</v>
       </c>
       <c r="G82">
-        <v>0.5697</v>
+        <v>0.8633</v>
       </c>
     </row>
     <row r="83">
@@ -2594,19 +2594,19 @@
         </is>
       </c>
       <c r="C83">
-        <v>0.07099999999999999</v>
+        <v>0.016</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>26.54</v>
+        <v>0.695</v>
       </c>
       <c r="F83">
-        <v>-0.876</v>
+        <v>-2.15</v>
       </c>
       <c r="G83">
-        <v>0.3812</v>
+        <v>0.0315</v>
       </c>
     </row>
     <row r="84">
@@ -2621,19 +2621,19 @@
         </is>
       </c>
       <c r="C84">
-        <v>0.7</v>
+        <v>1.804</v>
       </c>
       <c r="D84">
-        <v>0.147</v>
+        <v>0.74</v>
       </c>
       <c r="E84">
-        <v>3.342</v>
+        <v>4.401</v>
       </c>
       <c r="F84">
-        <v>-0.447</v>
+        <v>1.297</v>
       </c>
       <c r="G84">
-        <v>0.6546999999999999</v>
+        <v>0.1946</v>
       </c>
     </row>
     <row r="85">
@@ -2648,19 +2648,19 @@
         </is>
       </c>
       <c r="C85">
-        <v>0.349</v>
+        <v>2.356</v>
       </c>
       <c r="D85">
-        <v>0.035</v>
+        <v>0.656</v>
       </c>
       <c r="E85">
-        <v>3.497</v>
+        <v>8.465999999999999</v>
       </c>
       <c r="F85">
-        <v>-0.896</v>
+        <v>1.314</v>
       </c>
       <c r="G85">
-        <v>0.3705</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="86">
@@ -2675,19 +2675,19 @@
         </is>
       </c>
       <c r="C86">
-        <v>1.271</v>
+        <v>0.483</v>
       </c>
       <c r="D86">
-        <v>0.173</v>
+        <v>0.094</v>
       </c>
       <c r="E86">
-        <v>9.345000000000001</v>
+        <v>2.484</v>
       </c>
       <c r="F86">
-        <v>0.236</v>
+        <v>-0.871</v>
       </c>
       <c r="G86">
-        <v>0.8138</v>
+        <v>0.3837</v>
       </c>
     </row>
     <row r="87">
@@ -2702,19 +2702,19 @@
         </is>
       </c>
       <c r="C87">
-        <v>9.483000000000001</v>
+        <v>0.482</v>
       </c>
       <c r="D87">
-        <v>0.582</v>
+        <v>0.079</v>
       </c>
       <c r="E87">
-        <v>154.492</v>
+        <v>2.942</v>
       </c>
       <c r="F87">
-        <v>1.58</v>
+        <v>-0.791</v>
       </c>
       <c r="G87">
-        <v>0.1141</v>
+        <v>0.4287</v>
       </c>
     </row>
     <row r="88">
@@ -2729,19 +2729,19 @@
         </is>
       </c>
       <c r="C88">
-        <v>3.083</v>
+        <v>1.242</v>
       </c>
       <c r="D88">
-        <v>0.4</v>
+        <v>0.247</v>
       </c>
       <c r="E88">
-        <v>23.751</v>
+        <v>6.238</v>
       </c>
       <c r="F88">
-        <v>1.081</v>
+        <v>0.264</v>
       </c>
       <c r="G88">
-        <v>0.2798</v>
+        <v>0.792</v>
       </c>
     </row>
     <row r="89">
@@ -2756,19 +2756,19 @@
         </is>
       </c>
       <c r="C89">
-        <v>13.072</v>
+        <v>2.937</v>
       </c>
       <c r="D89">
-        <v>1.214</v>
+        <v>0.541</v>
       </c>
       <c r="E89">
-        <v>140.733</v>
+        <v>15.962</v>
       </c>
       <c r="F89">
-        <v>2.12</v>
+        <v>1.248</v>
       </c>
       <c r="G89">
-        <v>0.034</v>
+        <v>0.2121</v>
       </c>
     </row>
     <row r="90">
@@ -2783,19 +2783,19 @@
         </is>
       </c>
       <c r="C90">
-        <v>2.035</v>
+        <v>0.669</v>
       </c>
       <c r="D90">
-        <v>0.056</v>
+        <v>0.092</v>
       </c>
       <c r="E90">
-        <v>73.544</v>
+        <v>4.864</v>
       </c>
       <c r="F90">
-        <v>0.388</v>
+        <v>-0.397</v>
       </c>
       <c r="G90">
-        <v>0.6979</v>
+        <v>0.6912</v>
       </c>
     </row>
     <row r="91">
@@ -2810,19 +2810,19 @@
         </is>
       </c>
       <c r="C91">
-        <v>3.28</v>
+        <v>0.398</v>
       </c>
       <c r="D91">
-        <v>0.463</v>
+        <v>0.106</v>
       </c>
       <c r="E91">
-        <v>23.219</v>
+        <v>1.491</v>
       </c>
       <c r="F91">
-        <v>1.19</v>
+        <v>-1.367</v>
       </c>
       <c r="G91">
-        <v>0.2342</v>
+        <v>0.1715</v>
       </c>
     </row>
     <row r="92">
@@ -2837,19 +2837,19 @@
         </is>
       </c>
       <c r="C92">
-        <v>1.961</v>
+        <v>4.381</v>
       </c>
       <c r="D92">
-        <v>0.141</v>
+        <v>0.93</v>
       </c>
       <c r="E92">
-        <v>27.215</v>
+        <v>20.633</v>
       </c>
       <c r="F92">
-        <v>0.502</v>
+        <v>1.868</v>
       </c>
       <c r="G92">
-        <v>0.6156</v>
+        <v>0.0617</v>
       </c>
     </row>
     <row r="93">
@@ -2864,19 +2864,19 @@
         </is>
       </c>
       <c r="C93">
-        <v>5.38</v>
+        <v>2.344</v>
       </c>
       <c r="D93">
-        <v>0.426</v>
+        <v>0.68</v>
       </c>
       <c r="E93">
-        <v>67.95699999999999</v>
+        <v>8.077</v>
       </c>
       <c r="F93">
-        <v>1.3</v>
+        <v>1.349</v>
       </c>
       <c r="G93">
-        <v>0.1935</v>
+        <v>0.1772</v>
       </c>
     </row>
     <row r="94">
@@ -2891,19 +2891,19 @@
         </is>
       </c>
       <c r="C94">
-        <v>0.588</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="D94">
-        <v>0.201</v>
+        <v>0.452</v>
       </c>
       <c r="E94">
-        <v>1.724</v>
+        <v>1.472</v>
       </c>
       <c r="F94">
-        <v>-0.967</v>
+        <v>-0.676</v>
       </c>
       <c r="G94">
-        <v>0.3334</v>
+        <v>0.4989</v>
       </c>
     </row>
     <row r="95">
@@ -2918,19 +2918,19 @@
         </is>
       </c>
       <c r="C95">
-        <v>1.582</v>
+        <v>1.168</v>
       </c>
       <c r="D95">
-        <v>0.865</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="E95">
-        <v>2.894</v>
+        <v>1.67</v>
       </c>
       <c r="F95">
-        <v>1.488</v>
+        <v>0.853</v>
       </c>
       <c r="G95">
-        <v>0.1368</v>
+        <v>0.3934</v>
       </c>
     </row>
     <row r="96">
@@ -2945,19 +2945,19 @@
         </is>
       </c>
       <c r="C96">
-        <v>0.319</v>
+        <v>0.652</v>
       </c>
       <c r="D96">
-        <v>0.15</v>
+        <v>0.475</v>
       </c>
       <c r="E96">
-        <v>0.678</v>
+        <v>0.894</v>
       </c>
       <c r="F96">
-        <v>-2.967</v>
+        <v>-2.652</v>
       </c>
       <c r="G96">
-        <v>0.003</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="97">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C97">
-        <v>0.896</v>
+        <v>1.414</v>
       </c>
       <c r="D97">
-        <v>0.479</v>
+        <v>1.018</v>
       </c>
       <c r="E97">
-        <v>1.677</v>
+        <v>1.963</v>
       </c>
       <c r="F97">
-        <v>-0.342</v>
+        <v>2.069</v>
       </c>
       <c r="G97">
-        <v>0.7324000000000001</v>
+        <v>0.0386</v>
       </c>
     </row>
     <row r="98">
@@ -2999,19 +2999,19 @@
         </is>
       </c>
       <c r="C98">
-        <v>1.597</v>
+        <v>0.724</v>
       </c>
       <c r="D98">
-        <v>0.828</v>
+        <v>0.511</v>
       </c>
       <c r="E98">
-        <v>3.083</v>
+        <v>1.027</v>
       </c>
       <c r="F98">
-        <v>1.396</v>
+        <v>-1.809</v>
       </c>
       <c r="G98">
-        <v>0.1626</v>
+        <v>0.0704</v>
       </c>
     </row>
     <row r="99">
@@ -3026,19 +3026,19 @@
         </is>
       </c>
       <c r="C99">
-        <v>1.878</v>
+        <v>1.289</v>
       </c>
       <c r="D99">
-        <v>0.798</v>
+        <v>0.773</v>
       </c>
       <c r="E99">
-        <v>4.416</v>
+        <v>2.148</v>
       </c>
       <c r="F99">
-        <v>1.444</v>
+        <v>0.973</v>
       </c>
       <c r="G99">
-        <v>0.1488</v>
+        <v>0.3305</v>
       </c>
     </row>
     <row r="100">
@@ -3053,19 +3053,19 @@
         </is>
       </c>
       <c r="C100">
-        <v>0.473</v>
+        <v>0.882</v>
       </c>
       <c r="D100">
-        <v>0.21</v>
+        <v>0.593</v>
       </c>
       <c r="E100">
-        <v>1.066</v>
+        <v>1.313</v>
       </c>
       <c r="F100">
-        <v>-1.805</v>
+        <v>-0.618</v>
       </c>
       <c r="G100">
-        <v>0.07099999999999999</v>
+        <v>0.5369</v>
       </c>
     </row>
     <row r="101">
@@ -3080,19 +3080,19 @@
         </is>
       </c>
       <c r="C101">
-        <v>1.267</v>
+        <v>1.285</v>
       </c>
       <c r="D101">
-        <v>0.633</v>
+        <v>0.888</v>
       </c>
       <c r="E101">
-        <v>2.539</v>
+        <v>1.859</v>
       </c>
       <c r="F101">
-        <v>0.668</v>
+        <v>1.329</v>
       </c>
       <c r="G101">
-        <v>0.5041</v>
+        <v>0.1837</v>
       </c>
     </row>
     <row r="102">
@@ -3107,19 +3107,19 @@
         </is>
       </c>
       <c r="C102">
-        <v>1.087</v>
+        <v>0.848</v>
       </c>
       <c r="D102">
-        <v>0.65</v>
+        <v>0.611</v>
       </c>
       <c r="E102">
-        <v>1.818</v>
+        <v>1.178</v>
       </c>
       <c r="F102">
-        <v>0.317</v>
+        <v>-0.983</v>
       </c>
       <c r="G102">
-        <v>0.7513</v>
+        <v>0.3255</v>
       </c>
     </row>
     <row r="103">
@@ -3134,19 +3134,19 @@
         </is>
       </c>
       <c r="C103">
-        <v>0.614</v>
+        <v>2.426</v>
       </c>
       <c r="D103">
-        <v>0.152</v>
+        <v>1.051</v>
       </c>
       <c r="E103">
-        <v>2.484</v>
+        <v>5.598</v>
       </c>
       <c r="F103">
-        <v>-0.6840000000000001</v>
+        <v>2.077</v>
       </c>
       <c r="G103">
-        <v>0.4939</v>
+        <v>0.0378</v>
       </c>
     </row>
     <row r="104">
@@ -3161,19 +3161,19 @@
         </is>
       </c>
       <c r="C104">
-        <v>1.827</v>
+        <v>0.363</v>
       </c>
       <c r="D104">
-        <v>0.262</v>
+        <v>0.094</v>
       </c>
       <c r="E104">
-        <v>12.729</v>
+        <v>1.393</v>
       </c>
       <c r="F104">
-        <v>0.608</v>
+        <v>-1.477</v>
       </c>
       <c r="G104">
-        <v>0.5429</v>
+        <v>0.1396</v>
       </c>
     </row>
     <row r="105">
@@ -3188,19 +3188,19 @@
         </is>
       </c>
       <c r="C105">
-        <v>5.045</v>
+        <v>17.545</v>
       </c>
       <c r="D105">
-        <v>0.094</v>
+        <v>1.514</v>
       </c>
       <c r="E105">
-        <v>270.337</v>
+        <v>203.346</v>
       </c>
       <c r="F105">
-        <v>0.797</v>
+        <v>2.292</v>
       </c>
       <c r="G105">
-        <v>0.4256</v>
+        <v>0.0219</v>
       </c>
     </row>
     <row r="106">
@@ -3215,19 +3215,19 @@
         </is>
       </c>
       <c r="C106">
-        <v>0.025</v>
+        <v>42501.496</v>
       </c>
       <c r="D106">
+        <v>4006.232</v>
+      </c>
+      <c r="E106">
+        <v>450891.753</v>
+      </c>
+      <c r="F106">
+        <v>8.845000000000001</v>
+      </c>
+      <c r="G106">
         <v>0</v>
-      </c>
-      <c r="E106">
-        <v>2.832</v>
-      </c>
-      <c r="F106">
-        <v>-1.527</v>
-      </c>
-      <c r="G106">
-        <v>0.1268</v>
       </c>
     </row>
     <row r="107">
@@ -3242,19 +3242,19 @@
         </is>
       </c>
       <c r="C107">
-        <v>26.797</v>
+        <v>3.283</v>
       </c>
       <c r="D107">
-        <v>3.428</v>
+        <v>0.876</v>
       </c>
       <c r="E107">
-        <v>209.471</v>
+        <v>12.305</v>
       </c>
       <c r="F107">
-        <v>3.134</v>
+        <v>1.764</v>
       </c>
       <c r="G107">
-        <v>0.0017</v>
+        <v>0.07779999999999999</v>
       </c>
     </row>
     <row r="108">
@@ -3269,19 +3269,19 @@
         </is>
       </c>
       <c r="C108">
-        <v>19.799</v>
+        <v>3.978</v>
       </c>
       <c r="D108">
-        <v>3.378</v>
+        <v>1.118</v>
       </c>
       <c r="E108">
-        <v>116.055</v>
+        <v>14.162</v>
       </c>
       <c r="F108">
-        <v>3.309</v>
+        <v>2.132</v>
       </c>
       <c r="G108">
-        <v>0.0009</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="109">
@@ -3296,19 +3296,19 @@
         </is>
       </c>
       <c r="C109">
-        <v>1.103</v>
+        <v>1.117</v>
       </c>
       <c r="D109">
-        <v>1.048</v>
+        <v>1.084</v>
       </c>
       <c r="E109">
-        <v>1.161</v>
+        <v>1.152</v>
       </c>
       <c r="F109">
-        <v>3.777</v>
+        <v>7.167</v>
       </c>
       <c r="G109">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3463,334 +3463,334 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0</v>
+        <v>0.243</v>
       </c>
       <c r="B2">
-        <v>2.176</v>
+        <v>0.738</v>
       </c>
       <c r="C2">
-        <v>0.418</v>
+        <v>2.043</v>
       </c>
       <c r="D2">
-        <v>0.313</v>
+        <v>1.38</v>
       </c>
       <c r="E2">
-        <v>1.041</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="F2">
-        <v>0.918</v>
+        <v>1.576</v>
       </c>
       <c r="G2">
-        <v>1.978</v>
+        <v>0.454</v>
       </c>
       <c r="H2">
-        <v>0.121</v>
+        <v>1.863</v>
       </c>
       <c r="I2">
-        <v>1.064</v>
+        <v>1.012</v>
       </c>
       <c r="J2">
-        <v>1.516</v>
+        <v>0.782</v>
       </c>
       <c r="K2">
-        <v>1.098</v>
+        <v>1.012</v>
       </c>
       <c r="L2">
-        <v>67640.689</v>
+        <v>0.223</v>
       </c>
       <c r="M2">
-        <v>2719.667</v>
+        <v>0.402</v>
       </c>
       <c r="N2">
-        <v>0.095</v>
+        <v>0.381</v>
       </c>
       <c r="O2">
-        <v>78082.60799999999</v>
+        <v>0.051</v>
       </c>
       <c r="P2">
-        <v>0.597</v>
+        <v>0.43</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1660096.709</v>
       </c>
       <c r="R2">
-        <v>45.687</v>
+        <v>3.525</v>
       </c>
       <c r="S2">
-        <v>0.13</v>
+        <v>2.229</v>
       </c>
       <c r="T2">
-        <v>0.323</v>
+        <v>3.948</v>
       </c>
       <c r="U2">
-        <v>0.162</v>
+        <v>2.566</v>
       </c>
       <c r="V2">
-        <v>0.788</v>
+        <v>6.812</v>
       </c>
       <c r="W2">
-        <v>25788.531</v>
+        <v>0.331</v>
       </c>
       <c r="X2">
-        <v>13245.682</v>
+        <v>0.199</v>
       </c>
       <c r="Y2">
-        <v>2511.958</v>
+        <v>0.123</v>
       </c>
       <c r="Z2">
-        <v>1.879</v>
+        <v>0.122</v>
       </c>
       <c r="AA2">
-        <v>0.832</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>4.269</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>1.354</v>
+        <v>1.607</v>
       </c>
       <c r="C3">
-        <v>0.489</v>
+        <v>0.856</v>
       </c>
       <c r="D3">
-        <v>0.722</v>
+        <v>0.436</v>
       </c>
       <c r="E3">
-        <v>1.457</v>
+        <v>0.714</v>
       </c>
       <c r="F3">
-        <v>0.634</v>
+        <v>1.443</v>
       </c>
       <c r="G3">
-        <v>2.207</v>
+        <v>0.895</v>
       </c>
       <c r="H3">
-        <v>0.536</v>
+        <v>0.226</v>
       </c>
       <c r="I3">
-        <v>0.986</v>
+        <v>1.081</v>
       </c>
       <c r="J3">
-        <v>1.282</v>
+        <v>1.183</v>
       </c>
       <c r="K3">
-        <v>0.987</v>
+        <v>1.112</v>
       </c>
       <c r="L3">
-        <v>4.453</v>
+        <v>32729.358</v>
       </c>
       <c r="M3">
-        <v>2.484</v>
+        <v>2372.125</v>
       </c>
       <c r="N3">
-        <v>2.636</v>
+        <v>0.012</v>
       </c>
       <c r="O3">
-        <v>19.796</v>
+        <v>8547.932000000001</v>
       </c>
       <c r="P3">
-        <v>2.293</v>
+        <v>0.263</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="R3">
-        <v>0.286</v>
+        <v>159.011</v>
       </c>
       <c r="S3">
-        <v>0.447</v>
+        <v>0.291</v>
       </c>
       <c r="T3">
-        <v>0.253</v>
+        <v>1.275</v>
       </c>
       <c r="U3">
-        <v>0.387</v>
+        <v>0.418</v>
       </c>
       <c r="V3">
-        <v>0.148</v>
+        <v>5.3</v>
       </c>
       <c r="W3">
-        <v>3.049</v>
+        <v>64644.697</v>
       </c>
       <c r="X3">
-        <v>5.058</v>
+        <v>20085.462</v>
       </c>
       <c r="Y3">
-        <v>8.278</v>
+        <v>2334.045</v>
       </c>
       <c r="Z3">
-        <v>8.148</v>
+        <v>0.231</v>
       </c>
       <c r="AA3">
-        <v>4.969</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.14</v>
+        <v>0.032</v>
       </c>
       <c r="B4">
-        <v>1.258</v>
+        <v>0.929</v>
       </c>
       <c r="C4">
-        <v>0.614</v>
+        <v>1.257</v>
       </c>
       <c r="D4">
-        <v>0.827</v>
+        <v>1.147</v>
       </c>
       <c r="E4">
-        <v>0.994</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="F4">
-        <v>0.823</v>
+        <v>1.298</v>
       </c>
       <c r="G4">
-        <v>1.861</v>
+        <v>0.843</v>
       </c>
       <c r="H4">
-        <v>0.879</v>
+        <v>1.642</v>
       </c>
       <c r="I4">
-        <v>1.022</v>
+        <v>1.036</v>
       </c>
       <c r="J4">
-        <v>1.327</v>
+        <v>1.036</v>
       </c>
       <c r="K4">
-        <v>0.984</v>
+        <v>0.997</v>
       </c>
       <c r="L4">
-        <v>3.561</v>
+        <v>0.802</v>
       </c>
       <c r="M4">
-        <v>1.166</v>
+        <v>0.471</v>
       </c>
       <c r="N4">
-        <v>0.868</v>
+        <v>0.33</v>
       </c>
       <c r="O4">
-        <v>9.904</v>
+        <v>0.501</v>
       </c>
       <c r="P4">
-        <v>4.749</v>
+        <v>2.068</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.039</v>
       </c>
       <c r="R4">
-        <v>2.564</v>
+        <v>8.898999999999999</v>
       </c>
       <c r="S4">
-        <v>2.79</v>
+        <v>6.251</v>
       </c>
       <c r="T4">
-        <v>1.622</v>
+        <v>6.419</v>
       </c>
       <c r="U4">
-        <v>0.415</v>
+        <v>1.073</v>
       </c>
       <c r="V4">
-        <v>0.835</v>
+        <v>5.634</v>
       </c>
       <c r="W4">
-        <v>7.597</v>
+        <v>2.513</v>
       </c>
       <c r="X4">
-        <v>16.266</v>
+        <v>3.237</v>
       </c>
       <c r="Y4">
-        <v>15.699</v>
+        <v>1.907</v>
       </c>
       <c r="Z4">
-        <v>2.125</v>
+        <v>0.26</v>
       </c>
       <c r="AA4">
-        <v>1.623</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.07099999999999999</v>
+        <v>0.016</v>
       </c>
       <c r="B5">
-        <v>1.582</v>
+        <v>1.168</v>
       </c>
       <c r="C5">
-        <v>0.319</v>
+        <v>0.652</v>
       </c>
       <c r="D5">
-        <v>0.588</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="E5">
-        <v>1.878</v>
+        <v>1.289</v>
       </c>
       <c r="F5">
-        <v>0.896</v>
+        <v>1.414</v>
       </c>
       <c r="G5">
-        <v>1.597</v>
+        <v>0.724</v>
       </c>
       <c r="H5">
-        <v>0.473</v>
+        <v>0.882</v>
       </c>
       <c r="I5">
-        <v>1.267</v>
+        <v>1.285</v>
       </c>
       <c r="J5">
-        <v>1.087</v>
+        <v>0.848</v>
       </c>
       <c r="K5">
-        <v>1.103</v>
+        <v>1.117</v>
       </c>
       <c r="L5">
-        <v>13.072</v>
+        <v>2.937</v>
       </c>
       <c r="M5">
-        <v>3.083</v>
+        <v>1.242</v>
       </c>
       <c r="N5">
-        <v>1.271</v>
+        <v>0.483</v>
       </c>
       <c r="O5">
-        <v>9.483000000000001</v>
+        <v>0.482</v>
       </c>
       <c r="P5">
-        <v>5.38</v>
+        <v>2.344</v>
       </c>
       <c r="Q5">
-        <v>0.025</v>
+        <v>42501.496</v>
       </c>
       <c r="R5">
-        <v>5.045</v>
+        <v>17.545</v>
       </c>
       <c r="S5">
-        <v>1.961</v>
+        <v>4.381</v>
       </c>
       <c r="T5">
-        <v>0.614</v>
+        <v>2.426</v>
       </c>
       <c r="U5">
-        <v>0.7</v>
+        <v>1.804</v>
       </c>
       <c r="V5">
-        <v>0.349</v>
+        <v>2.356</v>
       </c>
       <c r="W5">
-        <v>2.035</v>
+        <v>0.669</v>
       </c>
       <c r="X5">
-        <v>1.827</v>
+        <v>0.363</v>
       </c>
       <c r="Y5">
-        <v>3.28</v>
+        <v>0.398</v>
       </c>
       <c r="Z5">
-        <v>26.797</v>
+        <v>3.283</v>
       </c>
       <c r="AA5">
-        <v>19.799</v>
+        <v>3.978</v>
       </c>
     </row>
   </sheetData>
